--- a/data/nzd0045/nzd0045.xlsx
+++ b/data/nzd0045/nzd0045.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O492"/>
+  <dimension ref="A1:O501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23366,6 +23366,439 @@
         </is>
       </c>
     </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>392.1633333333333</v>
+      </c>
+      <c r="C493" t="n">
+        <v>402.34</v>
+      </c>
+      <c r="D493" t="n">
+        <v>393.4715789473684</v>
+      </c>
+      <c r="E493" t="n">
+        <v>391.37</v>
+      </c>
+      <c r="F493" t="n">
+        <v>393.0615789473685</v>
+      </c>
+      <c r="G493" t="n">
+        <v>400.8311111111111</v>
+      </c>
+      <c r="H493" t="n">
+        <v>399.7670588235294</v>
+      </c>
+      <c r="I493" t="n">
+        <v>395.0715789473685</v>
+      </c>
+      <c r="J493" t="n">
+        <v>395.82</v>
+      </c>
+      <c r="K493" t="n">
+        <v>385.1011111111111</v>
+      </c>
+      <c r="L493" t="n">
+        <v>383.0042857142857</v>
+      </c>
+      <c r="M493" t="n">
+        <v>388.79</v>
+      </c>
+      <c r="N493" t="n">
+        <v>387.15</v>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>404.8866666666667</v>
+      </c>
+      <c r="C494" t="n">
+        <v>413.78</v>
+      </c>
+      <c r="D494" t="n">
+        <v>397.0684210526316</v>
+      </c>
+      <c r="E494" t="n">
+        <v>394.73</v>
+      </c>
+      <c r="F494" t="n">
+        <v>399.9684210526316</v>
+      </c>
+      <c r="G494" t="n">
+        <v>404.8888888888889</v>
+      </c>
+      <c r="H494" t="n">
+        <v>402.8805882352942</v>
+      </c>
+      <c r="I494" t="n">
+        <v>403.9084210526316</v>
+      </c>
+      <c r="J494" t="n">
+        <v>401.33</v>
+      </c>
+      <c r="K494" t="n">
+        <v>393.2288888888889</v>
+      </c>
+      <c r="L494" t="n">
+        <v>390.4142857142857</v>
+      </c>
+      <c r="M494" t="n">
+        <v>392.97</v>
+      </c>
+      <c r="N494" t="n">
+        <v>389.24</v>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>398.6166666666667</v>
+      </c>
+      <c r="C495" t="n">
+        <v>409.34</v>
+      </c>
+      <c r="D495" t="n">
+        <v>396.2384210526316</v>
+      </c>
+      <c r="E495" t="n">
+        <v>393.61</v>
+      </c>
+      <c r="F495" t="n">
+        <v>392.8684210526316</v>
+      </c>
+      <c r="G495" t="n">
+        <v>394.1888888888889</v>
+      </c>
+      <c r="H495" t="n">
+        <v>398.5705882352942</v>
+      </c>
+      <c r="I495" t="n">
+        <v>393.5284210526316</v>
+      </c>
+      <c r="J495" t="n">
+        <v>398.11</v>
+      </c>
+      <c r="K495" t="n">
+        <v>388.0588888888889</v>
+      </c>
+      <c r="L495" t="n">
+        <v>388.0742857142857</v>
+      </c>
+      <c r="M495" t="n">
+        <v>395.95</v>
+      </c>
+      <c r="N495" t="n">
+        <v>386.48</v>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>395.2666666666667</v>
+      </c>
+      <c r="C496" t="n">
+        <v>407.64</v>
+      </c>
+      <c r="D496" t="n">
+        <v>401.531052631579</v>
+      </c>
+      <c r="E496" t="n">
+        <v>399.97</v>
+      </c>
+      <c r="F496" t="n">
+        <v>399.091052631579</v>
+      </c>
+      <c r="G496" t="n">
+        <v>398.5922222222222</v>
+      </c>
+      <c r="H496" t="n">
+        <v>394.97</v>
+      </c>
+      <c r="I496" t="n">
+        <v>393.9410526315789</v>
+      </c>
+      <c r="J496" t="n">
+        <v>397.87</v>
+      </c>
+      <c r="K496" t="n">
+        <v>383.5822222222222</v>
+      </c>
+      <c r="L496" t="n">
+        <v>385.7728571428572</v>
+      </c>
+      <c r="M496" t="n">
+        <v>388.51</v>
+      </c>
+      <c r="N496" t="n">
+        <v>387.99</v>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>400.1633333333333</v>
+      </c>
+      <c r="C497" t="n">
+        <v>413.17</v>
+      </c>
+      <c r="D497" t="n">
+        <v>405.9163157894737</v>
+      </c>
+      <c r="E497" t="n">
+        <v>399.69</v>
+      </c>
+      <c r="F497" t="n">
+        <v>398.3263157894737</v>
+      </c>
+      <c r="G497" t="n">
+        <v>407.5944444444444</v>
+      </c>
+      <c r="H497" t="n">
+        <v>403.7229411764706</v>
+      </c>
+      <c r="I497" t="n">
+        <v>402.3963157894737</v>
+      </c>
+      <c r="J497" t="n">
+        <v>405.7600000000001</v>
+      </c>
+      <c r="K497" t="n">
+        <v>390.5944444444444</v>
+      </c>
+      <c r="L497" t="n">
+        <v>390.85</v>
+      </c>
+      <c r="M497" t="n">
+        <v>397.82</v>
+      </c>
+      <c r="N497" t="n">
+        <v>393</v>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>400.3</v>
+      </c>
+      <c r="C498" t="n">
+        <v>416.8200000000001</v>
+      </c>
+      <c r="D498" t="n">
+        <v>411.7584210526316</v>
+      </c>
+      <c r="E498" t="n">
+        <v>414.98</v>
+      </c>
+      <c r="F498" t="n">
+        <v>412.1184210526316</v>
+      </c>
+      <c r="G498" t="n">
+        <v>413.2666666666667</v>
+      </c>
+      <c r="H498" t="n">
+        <v>412.19</v>
+      </c>
+      <c r="I498" t="n">
+        <v>375.6484210526315</v>
+      </c>
+      <c r="J498" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="K498" t="n">
+        <v>364.2866666666667</v>
+      </c>
+      <c r="L498" t="n">
+        <v>362.8957142857143</v>
+      </c>
+      <c r="M498" t="n">
+        <v>411.09</v>
+      </c>
+      <c r="N498" t="inlineStr"/>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>395.81</v>
+      </c>
+      <c r="C499" t="n">
+        <v>407.36</v>
+      </c>
+      <c r="D499" t="n">
+        <v>396.4542105263158</v>
+      </c>
+      <c r="E499" t="n">
+        <v>397.59</v>
+      </c>
+      <c r="F499" t="n">
+        <v>399.5842105263158</v>
+      </c>
+      <c r="G499" t="n">
+        <v>395.7066666666667</v>
+      </c>
+      <c r="H499" t="n">
+        <v>397.4870588235294</v>
+      </c>
+      <c r="I499" t="n">
+        <v>394.7042105263158</v>
+      </c>
+      <c r="J499" t="n">
+        <v>393.66</v>
+      </c>
+      <c r="K499" t="n">
+        <v>382.8466666666667</v>
+      </c>
+      <c r="L499" t="n">
+        <v>382.6114285714286</v>
+      </c>
+      <c r="M499" t="n">
+        <v>392.36</v>
+      </c>
+      <c r="N499" t="n">
+        <v>393.24</v>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>406.0733333333333</v>
+      </c>
+      <c r="C500" t="n">
+        <v>418.91</v>
+      </c>
+      <c r="D500" t="n">
+        <v>409.1394736842105</v>
+      </c>
+      <c r="E500" t="n">
+        <v>404.29</v>
+      </c>
+      <c r="F500" t="n">
+        <v>402.4494736842105</v>
+      </c>
+      <c r="G500" t="n">
+        <v>405.7211111111111</v>
+      </c>
+      <c r="H500" t="n">
+        <v>404.1905882352942</v>
+      </c>
+      <c r="I500" t="n">
+        <v>405.5094736842105</v>
+      </c>
+      <c r="J500" t="n">
+        <v>404.43</v>
+      </c>
+      <c r="K500" t="n">
+        <v>393.6811111111111</v>
+      </c>
+      <c r="L500" t="n">
+        <v>390.0271428571429</v>
+      </c>
+      <c r="M500" t="n">
+        <v>394.26</v>
+      </c>
+      <c r="N500" t="n">
+        <v>394.84</v>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>390.9866666666667</v>
+      </c>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr"/>
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr"/>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23377,7 +23810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B496"/>
+  <dimension ref="A1:B505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28345,6 +28778,96 @@
       </c>
       <c r="B496" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -28513,28 +29036,28 @@
         <v>0.1428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1572340793668615</v>
+        <v>0.1401878642610573</v>
       </c>
       <c r="J2" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01491959211440197</v>
+        <v>0.01230459836933162</v>
       </c>
       <c r="M2" t="n">
-        <v>7.462226649204606</v>
+        <v>7.413623498150736</v>
       </c>
       <c r="N2" t="n">
-        <v>91.4150731821219</v>
+        <v>90.3080653391477</v>
       </c>
       <c r="O2" t="n">
-        <v>9.561123008419141</v>
+        <v>9.503055579083377</v>
       </c>
       <c r="P2" t="n">
-        <v>398.4946154309018</v>
+        <v>398.6553446532675</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -28590,28 +29113,28 @@
         <v>0.1145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1530005788495862</v>
+        <v>0.1561123620217984</v>
       </c>
       <c r="J3" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01617762588379934</v>
+        <v>0.01737404936515663</v>
       </c>
       <c r="M3" t="n">
-        <v>6.891210851762182</v>
+        <v>6.842948050317046</v>
       </c>
       <c r="N3" t="n">
-        <v>79.62221871731795</v>
+        <v>78.60074293064494</v>
       </c>
       <c r="O3" t="n">
-        <v>8.923128303309213</v>
+        <v>8.865706002944432</v>
       </c>
       <c r="P3" t="n">
-        <v>406.4317980364962</v>
+        <v>406.4021717396816</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28667,28 +29190,28 @@
         <v>0.105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1603163598634762</v>
+        <v>0.1584450215397045</v>
       </c>
       <c r="J4" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02213081570240838</v>
+        <v>0.02221495030644427</v>
       </c>
       <c r="M4" t="n">
-        <v>5.99588304935637</v>
+        <v>5.992269108683572</v>
       </c>
       <c r="N4" t="n">
-        <v>63.32765683281258</v>
+        <v>62.8738799919017</v>
       </c>
       <c r="O4" t="n">
-        <v>7.957867605886176</v>
+        <v>7.929305139285642</v>
       </c>
       <c r="P4" t="n">
-        <v>397.9138196351895</v>
+        <v>397.9310637486405</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28744,28 +29267,28 @@
         <v>0.1128</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2058249888403477</v>
+        <v>0.1964011580725627</v>
       </c>
       <c r="J5" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03840386726316469</v>
+        <v>0.03579225877267123</v>
       </c>
       <c r="M5" t="n">
-        <v>5.524465207328531</v>
+        <v>5.539702073425269</v>
       </c>
       <c r="N5" t="n">
-        <v>58.89158571560783</v>
+        <v>58.82261009828694</v>
       </c>
       <c r="O5" t="n">
-        <v>7.674085334136429</v>
+        <v>7.66958995633319</v>
       </c>
       <c r="P5" t="n">
-        <v>396.9639322489893</v>
+        <v>397.0529390965574</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28821,28 +29344,28 @@
         <v>0.1086</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1893058064882149</v>
+        <v>0.1843931485819054</v>
       </c>
       <c r="J6" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02990694646175907</v>
+        <v>0.02921287193587085</v>
       </c>
       <c r="M6" t="n">
-        <v>5.754382052478151</v>
+        <v>5.732827227349222</v>
       </c>
       <c r="N6" t="n">
-        <v>63.99192031752713</v>
+        <v>63.40950856776966</v>
       </c>
       <c r="O6" t="n">
-        <v>7.99949500390663</v>
+        <v>7.963008763512047</v>
       </c>
       <c r="P6" t="n">
-        <v>396.2735444529355</v>
+        <v>396.3202366725429</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28898,28 +29421,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2634287342748873</v>
+        <v>0.2563860586224211</v>
       </c>
       <c r="J7" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04995268680321741</v>
+        <v>0.04872901188980527</v>
       </c>
       <c r="M7" t="n">
-        <v>6.284843605704921</v>
+        <v>6.263687766207054</v>
       </c>
       <c r="N7" t="n">
-        <v>73.24980550542222</v>
+        <v>72.6136254355482</v>
       </c>
       <c r="O7" t="n">
-        <v>8.558610021809745</v>
+        <v>8.521362886038137</v>
       </c>
       <c r="P7" t="n">
-        <v>397.9026393007724</v>
+        <v>397.9693249073695</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28975,28 +29498,28 @@
         <v>0.0948</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2272088473501004</v>
+        <v>0.2192454836859933</v>
       </c>
       <c r="J8" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03413608470984464</v>
+        <v>0.03287033367893699</v>
       </c>
       <c r="M8" t="n">
-        <v>6.518054073819108</v>
+        <v>6.471884156326437</v>
       </c>
       <c r="N8" t="n">
-        <v>81.3385017791631</v>
+        <v>80.34072119683698</v>
       </c>
       <c r="O8" t="n">
-        <v>9.018786047975809</v>
+        <v>8.963298566757496</v>
       </c>
       <c r="P8" t="n">
-        <v>398.1894589405874</v>
+        <v>398.2643784975155</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -29052,28 +29575,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2326393827705626</v>
+        <v>0.2066050820346093</v>
       </c>
       <c r="J9" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04400410815384259</v>
+        <v>0.0350732794535038</v>
       </c>
       <c r="M9" t="n">
-        <v>6.378575669188428</v>
+        <v>6.398170717481141</v>
       </c>
       <c r="N9" t="n">
-        <v>64.11844377670735</v>
+        <v>65.31787051946344</v>
       </c>
       <c r="O9" t="n">
-        <v>8.007399314178565</v>
+        <v>8.081947198507514</v>
       </c>
       <c r="P9" t="n">
-        <v>396.8875700550509</v>
+        <v>397.137545839012</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -29129,28 +29652,28 @@
         <v>0.1109</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1973935836852073</v>
+        <v>0.1682117678161092</v>
       </c>
       <c r="J10" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02811502081598705</v>
+        <v>0.02053896187363491</v>
       </c>
       <c r="M10" t="n">
-        <v>6.817233475172774</v>
+        <v>6.843313273595848</v>
       </c>
       <c r="N10" t="n">
-        <v>73.9278063051141</v>
+        <v>75.45313852359105</v>
       </c>
       <c r="O10" t="n">
-        <v>8.598128069825089</v>
+        <v>8.686376604982716</v>
       </c>
       <c r="P10" t="n">
-        <v>399.5971706371176</v>
+        <v>399.8777246610076</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -29206,28 +29729,28 @@
         <v>0.1017</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1298681433707453</v>
+        <v>0.1008748496895973</v>
       </c>
       <c r="J11" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00833169319567395</v>
+        <v>0.005112256495476863</v>
       </c>
       <c r="M11" t="n">
-        <v>8.176223894314177</v>
+        <v>8.18298729445238</v>
       </c>
       <c r="N11" t="n">
-        <v>110.094301589892</v>
+        <v>110.6718605468933</v>
       </c>
       <c r="O11" t="n">
-        <v>10.49258317050153</v>
+        <v>10.52006941739898</v>
       </c>
       <c r="P11" t="n">
-        <v>390.0339286835672</v>
+        <v>390.3127942844378</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -29283,28 +29806,28 @@
         <v>0.0813</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1012343593870521</v>
+        <v>0.0764955233879982</v>
       </c>
       <c r="J12" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002855634857184319</v>
+        <v>0.001677311212019417</v>
       </c>
       <c r="M12" t="n">
-        <v>11.33214067985183</v>
+        <v>11.23930878615855</v>
       </c>
       <c r="N12" t="n">
-        <v>196.5219282060029</v>
+        <v>195.0404516522028</v>
       </c>
       <c r="O12" t="n">
-        <v>14.01862790026195</v>
+        <v>13.96568837015214</v>
       </c>
       <c r="P12" t="n">
-        <v>388.5519115765255</v>
+        <v>388.7882667516487</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -29360,28 +29883,28 @@
         <v>0.0563</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008734912435933856</v>
+        <v>0.004975558375702971</v>
       </c>
       <c r="J13" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="L13" t="n">
-        <v>1.480908891526855e-05</v>
+        <v>4.981261670367054e-06</v>
       </c>
       <c r="M13" t="n">
-        <v>13.46975240811303</v>
+        <v>13.30856152758974</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0862834606017</v>
+        <v>274.6252405115477</v>
       </c>
       <c r="O13" t="n">
-        <v>16.70587571666334</v>
+        <v>16.57182067582038</v>
       </c>
       <c r="P13" t="n">
-        <v>396.0459698792599</v>
+        <v>396.0820169892251</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -29437,28 +29960,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01777118121123903</v>
+        <v>-0.01010315363731598</v>
       </c>
       <c r="J14" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="L14" t="n">
-        <v>8.383865455385831e-05</v>
+        <v>2.803081274060926e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>11.36406428585465</v>
+        <v>11.22650973353594</v>
       </c>
       <c r="N14" t="n">
-        <v>202.9696470822275</v>
+        <v>199.76645373483</v>
       </c>
       <c r="O14" t="n">
-        <v>14.24674163035982</v>
+        <v>14.13387610441064</v>
       </c>
       <c r="P14" t="n">
-        <v>388.3761938588984</v>
+        <v>388.3018895186238</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -29495,7 +30018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O492"/>
+  <dimension ref="A1:O501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63011,6 +63534,647 @@
         </is>
       </c>
     </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-35.00700155520758,173.7798621604758</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-35.006785950986504,173.78064726027705</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-35.006537153356106,173.781444810279</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-35.00625824619952,173.78228122738022</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-35.00592586972017,173.78307984772945</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-35.00556270822058,173.78384651687168</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>-35.00521958587983,173.78459827153543</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-35.004845392071374,173.7853361336693</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>-35.00440283930645,173.78598080975704</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>-35.00389423569412,173.786587410657</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>-35.003323093209026,173.78720436626483</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>-35.002835474891384,173.7879111268836</t>
+        </is>
+      </c>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>-35.00241998889146,173.78864077715622</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-35.00688911798594,173.7798344558702</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-35.006688760645865,173.78060525361605</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-35.006507939067646,173.7814276921877</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-35.006230788358245,173.7822656651484</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>-35.00586964986449,173.78304728393485</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>-35.005530283574664,173.78382591457705</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>-35.005196025046665,173.78457971785375</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>-35.00478243372911,173.78527677717906</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>-35.00436887263592,173.78593674354502</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>-35.00384908392199,173.7865172539181</t>
+        </is>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>-35.00327444874117,173.78714870006536</t>
+        </is>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>-35.00280510190664,173.78788400439808</t>
+        </is>
+      </c>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>-35.00240480193759,173.78862721674705</t>
+        </is>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-35.0069445265315,173.77984810856228</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-35.00672648137453,173.78062155688852</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-35.00651468049792,173.7814316423227</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-35.00623994097225,173.78227085255787</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-35.005927441973846,173.7830807584146</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-35.005615784480916,173.7838802410357</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>-35.00522863986251,173.78460540136797</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>-35.00485638634215,173.7853464989693</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>-35.00438872248896,173.785962495483</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>-35.00387780452777,173.78656187992507</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>-35.00328981015496,173.78716627885805</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>-35.00278344843509,173.78786466828433</t>
+        </is>
+      </c>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>-35.00242485743614,173.7886451242741</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-35.00697413077738,173.77985540307066</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-35.006740923995196,173.7806277991365</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-35.00647169265594,173.78140645364823</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-35.0061879671965,173.78224139549843</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>-35.00587679141037,173.78305142047472</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-35.00558059859723,173.78385788424555</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>-35.00525588638289,173.78462685747627</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>-35.00485344653723,173.78534372734717</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>-35.00439020198089,173.7859644148826</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>-35.00390267348476,173.786600521296</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>-35.00330491835603,173.78718356789685</t>
+        </is>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>-35.00283750944517,173.78791294370154</t>
+        </is>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>-35.00241388504416,173.788635327039</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-35.00693085850134,173.7798447407513</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-35.00669394299839,173.78060749347915</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-35.006436074642394,173.78138558333873</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-35.00619025535033,173.78224269234929</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-35.00588301616497,173.78305502598968</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-35.00550866418236,173.78381217784263</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>-35.005189650756876,173.78457469823115</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>-35.004793206769854,173.78528693388472</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>-35.004341563667325,173.78590131465683</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>-35.003863718902906,173.78653999370843</t>
+        </is>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>-35.00327158840436,173.78714542684764</t>
+        </is>
+      </c>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>-35.0027698605167,173.78785253455376</t>
+        </is>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>-35.00237747994952,173.78860282099967</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-35.006929650765905,173.7798444431646</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-35.00666293383914,173.7805940910239</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-35.00638862384997,173.78135777966634</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-35.00606530578492,173.78217187513522</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-35.005770752075755,173.78299000025268</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-35.005463338921004,173.78378337867574</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>-35.005125578448805,173.78452424265487</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>-35.00498377282426,173.785466598071</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>-35.00454043189198,173.7861593142768</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>-35.00400986477811,173.78676707555803</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>-35.003455099923706,173.78735542837165</t>
+        </is>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>-35.00267343712273,173.78776643060294</t>
+        </is>
+      </c>
+      <c r="N498" t="inlineStr"/>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-35.00696932929277,173.77985421998088</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-35.00674330277974,173.7806288272717</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-35.00651292781157,173.78143061533763</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-35.00620741650347,173.7822524187332</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-35.005872777236135,173.78304909537695</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>-35.00560365631662,173.783872534908</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>-35.00523683919156,173.78461185817932</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>-35.004848009397854,173.78533860126092</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>-35.00441615472991,173.7859980843619</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>-35.00390675967107,173.78660687041403</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>-35.00332567219972,173.78720731753037</t>
+        </is>
+      </c>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>-35.00280953432827,173.7878879624629</t>
+        </is>
+      </c>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>-35.00237573599268,173.78860126382486</t>
+        </is>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-35.0068786313072,173.77983187194977</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-35.0066451779088,173.7805864167459</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-35.00640989548537,173.78137024372302</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-35.00615266424989,173.78222138695128</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-35.00584945475429,173.78303558648892</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>-35.005523633503046,173.7838216891906</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>-35.00518611195761,173.78457191149968</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>-35.00477102697909,173.78526602302307</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>-35.00434976252358,173.7859119513183</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>-35.00384657171691,173.7865133504627</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>-35.003276990220684,173.78715160839994</t>
+        </is>
+      </c>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>-35.002795728424395,173.7878756340657</t>
+        </is>
+      </c>
+      <c r="N500" t="inlineStr">
+        <is>
+          <t>-35.00236410961305,173.78859088266117</t>
+        </is>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-35.00701195351447,173.77986472262958</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr"/>
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr"/>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0045/nzd0045.xlsx
+++ b/data/nzd0045/nzd0045.xlsx
@@ -28881,7 +28881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28972,35 +28972,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -29059,27 +29064,28 @@
       <c r="P2" t="n">
         <v>398.6553446532675</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.78071612077443 -35.01046713265365, 173.77869882287843 -35.002279947271134)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.7807161207744</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.01046713265365</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.7786988228784</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.00227994727113</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.7797074718264</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.0063735399624</v>
       </c>
     </row>
@@ -29136,27 +29142,28 @@
       <c r="P3" t="n">
         <v>406.4021717396816</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.7821246813728 -35.01020408342475, 173.77872246114254 -35.002332306199214)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.7821246813728</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.01020408342475</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.7787224611425</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.00233230619921</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.7804235712577</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.00626819481198</v>
       </c>
     </row>
@@ -29213,27 +29220,28 @@
       <c r="P4" t="n">
         <v>397.9310637486405</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.78331749469746 -35.009732993738496, 173.77890731315975 -35.00220631945347)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.7833174946975</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.0097329937385</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.7789073131597</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.00220631945347</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.7811124039286</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.00596965659598</v>
       </c>
     </row>
@@ -29290,27 +29298,28 @@
       <c r="P5" t="n">
         <v>397.0529390965574</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.78409397529822 -35.00945649723335, 173.7798020854432 -35.00188381078273)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.7840939752982</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.00945649723335</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.7798020854432</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.00188381078273</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.7819480303707</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.00567015400804</v>
       </c>
     </row>
@@ -29367,27 +29376,28 @@
       <c r="P6" t="n">
         <v>396.3202366725429</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.78493309558255 -35.00912527009406, 173.7805641480957 -35.00158237440056)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.7849330955825</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.00912527009406</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.7805641480957</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.00158237440056</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.7827486218391</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.00535382224732</v>
       </c>
     </row>
@@ -29444,27 +29454,28 @@
       <c r="P7" t="n">
         <v>397.9693249073695</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.78588171197416 -35.008765626143806, 173.7811765968547 -35.00136044233156)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.7858817119742</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.00876562614381</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.7811765968547</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.00136044233156</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.7835291544144</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.00506303423768</v>
       </c>
     </row>
@@ -29521,27 +29532,28 @@
       <c r="P8" t="n">
         <v>398.2643784975155</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.78698059299757 -35.008244694808255, 173.78145757160763 -35.001231055994424)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.7869805929976</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.00824469480825</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.7814575716076</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.00123105599442</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.7842190823026</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.00473787540134</v>
       </c>
     </row>
@@ -29598,27 +29610,28 @@
       <c r="P9" t="n">
         <v>397.137545839012</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.78798989693678 -35.007660059635604, 173.7817636426209 -35.001055888684704)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.7879898969368</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.0076600596356</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.7817636426209</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.0010558886847</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.7848767697788</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.00435797416016</v>
       </c>
     </row>
@@ -29675,27 +29688,28 @@
       <c r="P10" t="n">
         <v>399.8777246610076</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.78914647448596 -35.00684284787243, 173.7817313275979 -35.001127090789836)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.789146474486</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.00684284787243</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.7817313275979</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.00112709078984</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.7854389010419</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.00398496933113</v>
       </c>
     </row>
@@ -29752,27 +29766,28 @@
       <c r="P11" t="n">
         <v>390.3127942844378</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.7899115853827 -35.006033517506765, 173.78190725562413 -35.000881961462774)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.7899115853827</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.00603351750676</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.7819072556241</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.00088196146277</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.7859094205034</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.00345773948477</v>
       </c>
     </row>
@@ -29829,27 +29844,28 @@
       <c r="P12" t="n">
         <v>388.7882667516487</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.79008170210807 -35.005837367070164, 173.7831170932165 -34.99975116406702)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.7900817021081</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.00583736707016</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.7831170932165</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.99975116406702</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.7865993976623</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.0027942655686</v>
       </c>
     </row>
@@ -29906,27 +29922,28 @@
       <c r="P13" t="n">
         <v>396.0820169892251</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.790433930574 -35.00566049746064, 173.78441949738723 -34.99892515162334)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.790433930574</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.00566049746064</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.7844194973872</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.99892515162334</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.7874267139806</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.00229282454199</v>
       </c>
     </row>
@@ -29983,27 +30000,28 @@
       <c r="P14" t="n">
         <v>388.3018895186238</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.791152783867 -35.00523318066316, 173.7851387125152 -34.99849761720529)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.791152783867</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.00523318066316</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.7851387125152</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.99849761720529</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.7881457481911</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.00186539893423</v>
       </c>
     </row>

--- a/data/nzd0045/nzd0045.xlsx
+++ b/data/nzd0045/nzd0045.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O501"/>
+  <dimension ref="A1:O507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23799,6 +23799,308 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:17:31+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>416.7533333333333</v>
+      </c>
+      <c r="C502" t="n">
+        <v>416.23</v>
+      </c>
+      <c r="D502" t="n">
+        <v>405.7221052631579</v>
+      </c>
+      <c r="E502" t="n">
+        <v>405.88</v>
+      </c>
+      <c r="F502" t="n">
+        <v>402.562105263158</v>
+      </c>
+      <c r="G502" t="n">
+        <v>402.5577777777777</v>
+      </c>
+      <c r="H502" t="n">
+        <v>401.4558823529412</v>
+      </c>
+      <c r="I502" t="n">
+        <v>404.2921052631579</v>
+      </c>
+      <c r="J502" t="n">
+        <v>403.25</v>
+      </c>
+      <c r="K502" t="n">
+        <v>390.8777777777778</v>
+      </c>
+      <c r="L502" t="n">
+        <v>380.8485714285715</v>
+      </c>
+      <c r="M502" t="n">
+        <v>386.03</v>
+      </c>
+      <c r="N502" t="n">
+        <v>384.82</v>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>413.51</v>
+      </c>
+      <c r="C503" t="n">
+        <v>414.45</v>
+      </c>
+      <c r="D503" t="n">
+        <v>402.4473684210527</v>
+      </c>
+      <c r="E503" t="n">
+        <v>402.33</v>
+      </c>
+      <c r="F503" t="n">
+        <v>399.6673684210527</v>
+      </c>
+      <c r="G503" t="n">
+        <v>400.6266666666667</v>
+      </c>
+      <c r="H503" t="n">
+        <v>402.4129411764706</v>
+      </c>
+      <c r="I503" t="n">
+        <v>398.7673684210527</v>
+      </c>
+      <c r="J503" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="K503" t="n">
+        <v>394.2566666666667</v>
+      </c>
+      <c r="L503" t="n">
+        <v>386.9428571428572</v>
+      </c>
+      <c r="M503" t="n">
+        <v>387.54</v>
+      </c>
+      <c r="N503" t="n">
+        <v>386.89</v>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>414.7166666666667</v>
+      </c>
+      <c r="C504" t="n">
+        <v>418.78</v>
+      </c>
+      <c r="D504" t="n">
+        <v>406.9905263157895</v>
+      </c>
+      <c r="E504" t="n">
+        <v>407.2</v>
+      </c>
+      <c r="F504" t="n">
+        <v>404.3205263157895</v>
+      </c>
+      <c r="G504" t="n">
+        <v>404.1388888888889</v>
+      </c>
+      <c r="H504" t="n">
+        <v>403.2494117647059</v>
+      </c>
+      <c r="I504" t="n">
+        <v>403.1605263157895</v>
+      </c>
+      <c r="J504" t="n">
+        <v>404.93</v>
+      </c>
+      <c r="K504" t="n">
+        <v>387.3088888888889</v>
+      </c>
+      <c r="L504" t="n">
+        <v>385.6628571428572</v>
+      </c>
+      <c r="M504" t="n">
+        <v>386.38</v>
+      </c>
+      <c r="N504" t="n">
+        <v>395.43</v>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr"/>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="n">
+        <v>392.0110526315789</v>
+      </c>
+      <c r="E505" t="n">
+        <v>394.25</v>
+      </c>
+      <c r="F505" t="n">
+        <v>393.481052631579</v>
+      </c>
+      <c r="G505" t="n">
+        <v>395.9644444444445</v>
+      </c>
+      <c r="H505" t="n">
+        <v>398.9305882352941</v>
+      </c>
+      <c r="I505" t="n">
+        <v>393.3810526315789</v>
+      </c>
+      <c r="J505" t="n">
+        <v>396.55</v>
+      </c>
+      <c r="K505" t="n">
+        <v>381.1044444444445</v>
+      </c>
+      <c r="L505" t="n">
+        <v>374.5714285714286</v>
+      </c>
+      <c r="M505" t="n">
+        <v>384.8</v>
+      </c>
+      <c r="N505" t="n">
+        <v>385.14</v>
+      </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>393.31</v>
+      </c>
+      <c r="C506" t="n">
+        <v>397.83</v>
+      </c>
+      <c r="D506" t="n">
+        <v>392.3563157894737</v>
+      </c>
+      <c r="E506" t="n">
+        <v>390.52</v>
+      </c>
+      <c r="F506" t="n">
+        <v>387.9863157894737</v>
+      </c>
+      <c r="G506" t="n">
+        <v>386.6766666666667</v>
+      </c>
+      <c r="H506" t="n">
+        <v>384.1135294117647</v>
+      </c>
+      <c r="I506" t="n">
+        <v>384.5163157894737</v>
+      </c>
+      <c r="J506" t="n">
+        <v>381.97</v>
+      </c>
+      <c r="K506" t="n">
+        <v>371.0266666666667</v>
+      </c>
+      <c r="L506" t="n">
+        <v>368.5885714285714</v>
+      </c>
+      <c r="M506" t="n">
+        <v>370.18</v>
+      </c>
+      <c r="N506" t="n">
+        <v>367.81</v>
+      </c>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>414.64</v>
+      </c>
+      <c r="C507" t="n">
+        <v>412.41</v>
+      </c>
+      <c r="D507" t="n">
+        <v>405.0610526315789</v>
+      </c>
+      <c r="E507" t="n">
+        <v>403.44</v>
+      </c>
+      <c r="F507" t="n">
+        <v>399.791052631579</v>
+      </c>
+      <c r="G507" t="n">
+        <v>398.9333333333333</v>
+      </c>
+      <c r="H507" t="n">
+        <v>396.4752941176471</v>
+      </c>
+      <c r="I507" t="n">
+        <v>397.301052631579</v>
+      </c>
+      <c r="J507" t="n">
+        <v>393.88</v>
+      </c>
+      <c r="K507" t="n">
+        <v>382.8833333333333</v>
+      </c>
+      <c r="L507" t="n">
+        <v>374.4971428571428</v>
+      </c>
+      <c r="M507" t="n">
+        <v>376.69</v>
+      </c>
+      <c r="N507" t="n">
+        <v>373.86</v>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23810,7 +24112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B505"/>
+  <dimension ref="A1:B511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28868,6 +29170,66 @@
       </c>
       <c r="B505" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -29041,28 +29403,28 @@
         <v>0.1428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1401878642610573</v>
+        <v>0.1585233291756681</v>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K2" t="n">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01230459836933162</v>
+        <v>0.01575500778923344</v>
       </c>
       <c r="M2" t="n">
-        <v>7.413623498150736</v>
+        <v>7.473201833005435</v>
       </c>
       <c r="N2" t="n">
-        <v>90.3080653391477</v>
+        <v>90.94155383267073</v>
       </c>
       <c r="O2" t="n">
-        <v>9.503055579083377</v>
+        <v>9.536328110581699</v>
       </c>
       <c r="P2" t="n">
-        <v>398.6553446532675</v>
+        <v>398.4806236830407</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29119,28 +29481,28 @@
         <v>0.1145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1561123620217984</v>
+        <v>0.1594485561688853</v>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K3" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01737404936515663</v>
+        <v>0.0183848443433261</v>
       </c>
       <c r="M3" t="n">
-        <v>6.842948050317046</v>
+        <v>6.83760250322713</v>
       </c>
       <c r="N3" t="n">
-        <v>78.60074293064494</v>
+        <v>78.33616953646498</v>
       </c>
       <c r="O3" t="n">
-        <v>8.865706002944432</v>
+        <v>8.850772256501971</v>
       </c>
       <c r="P3" t="n">
-        <v>406.4021717396816</v>
+        <v>406.3705864083496</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29197,28 +29559,28 @@
         <v>0.105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1584450215397045</v>
+        <v>0.1551181086515466</v>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K4" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02221495030644427</v>
+        <v>0.02173296174187278</v>
       </c>
       <c r="M4" t="n">
-        <v>5.992269108683572</v>
+        <v>5.984834705714833</v>
       </c>
       <c r="N4" t="n">
-        <v>62.8738799919017</v>
+        <v>62.54374331364225</v>
       </c>
       <c r="O4" t="n">
-        <v>7.929305139285642</v>
+        <v>7.908460236584758</v>
       </c>
       <c r="P4" t="n">
-        <v>397.9310637486405</v>
+        <v>397.9630616338841</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29275,28 +29637,28 @@
         <v>0.1128</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1964011580725627</v>
+        <v>0.1924528303443006</v>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K5" t="n">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03579225877267123</v>
+        <v>0.03505139094123755</v>
       </c>
       <c r="M5" t="n">
-        <v>5.539702073425269</v>
+        <v>5.532413420050485</v>
       </c>
       <c r="N5" t="n">
-        <v>58.82261009828694</v>
+        <v>58.54777808860497</v>
       </c>
       <c r="O5" t="n">
-        <v>7.66958995633319</v>
+        <v>7.651651984284503</v>
       </c>
       <c r="P5" t="n">
-        <v>397.0529390965574</v>
+        <v>397.091175466405</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29353,28 +29715,28 @@
         <v>0.1086</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1843931485819054</v>
+        <v>0.1762726526476747</v>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K6" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02921287193587085</v>
+        <v>0.02727132160583434</v>
       </c>
       <c r="M6" t="n">
-        <v>5.732827227349222</v>
+        <v>5.721749964221043</v>
       </c>
       <c r="N6" t="n">
-        <v>63.40950856776966</v>
+        <v>63.08279985831086</v>
       </c>
       <c r="O6" t="n">
-        <v>7.963008763512047</v>
+        <v>7.942468121327958</v>
       </c>
       <c r="P6" t="n">
-        <v>396.3202366725429</v>
+        <v>396.3991477358755</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29431,28 +29793,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2563860586224211</v>
+        <v>0.2396145680576869</v>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K7" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04872901188980527</v>
+        <v>0.04341620360158371</v>
       </c>
       <c r="M7" t="n">
-        <v>6.263687766207054</v>
+        <v>6.261283531025041</v>
       </c>
       <c r="N7" t="n">
-        <v>72.6136254355482</v>
+        <v>72.6088961039224</v>
       </c>
       <c r="O7" t="n">
-        <v>8.521362886038137</v>
+        <v>8.52108538297337</v>
       </c>
       <c r="P7" t="n">
-        <v>397.9693249073695</v>
+        <v>398.1307923535848</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29509,28 +29871,28 @@
         <v>0.0948</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2192454836859933</v>
+        <v>0.2031012905208718</v>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K8" t="n">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03287033367893699</v>
+        <v>0.02875467036450663</v>
       </c>
       <c r="M8" t="n">
-        <v>6.471884156326437</v>
+        <v>6.455814946704152</v>
       </c>
       <c r="N8" t="n">
-        <v>80.34072119683698</v>
+        <v>80.31153551607582</v>
       </c>
       <c r="O8" t="n">
-        <v>8.963298566757496</v>
+        <v>8.961670353013204</v>
       </c>
       <c r="P8" t="n">
-        <v>398.2643784975155</v>
+        <v>398.4188468677957</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29587,28 +29949,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2066050820346093</v>
+        <v>0.191827076944445</v>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K9" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0350732794535038</v>
+        <v>0.03076055294453783</v>
       </c>
       <c r="M9" t="n">
-        <v>6.398170717481141</v>
+        <v>6.393997556494917</v>
       </c>
       <c r="N9" t="n">
-        <v>65.31787051946344</v>
+        <v>65.43081368614153</v>
       </c>
       <c r="O9" t="n">
-        <v>8.081947198507514</v>
+        <v>8.088931554052213</v>
       </c>
       <c r="P9" t="n">
-        <v>397.137545839012</v>
+        <v>397.2816971162379</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29665,28 +30027,28 @@
         <v>0.1109</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1682117678161092</v>
+        <v>0.1501321737792424</v>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K10" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02053896187363491</v>
+        <v>0.01655325953597264</v>
       </c>
       <c r="M10" t="n">
-        <v>6.843313273595848</v>
+        <v>6.843973649197586</v>
       </c>
       <c r="N10" t="n">
-        <v>75.45313852359105</v>
+        <v>75.91524344851005</v>
       </c>
       <c r="O10" t="n">
-        <v>8.686376604982716</v>
+        <v>8.712935409407674</v>
       </c>
       <c r="P10" t="n">
-        <v>399.8777246610076</v>
+        <v>400.0543546031215</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29743,28 +30105,28 @@
         <v>0.1017</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1008748496895973</v>
+        <v>0.07900549919631347</v>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K11" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005112256495476863</v>
+        <v>0.003180815759982081</v>
       </c>
       <c r="M11" t="n">
-        <v>8.18298729445238</v>
+        <v>8.19416254027773</v>
       </c>
       <c r="N11" t="n">
-        <v>110.6718605468933</v>
+        <v>110.8465377987364</v>
       </c>
       <c r="O11" t="n">
-        <v>10.52006941739898</v>
+        <v>10.52836824008053</v>
       </c>
       <c r="P11" t="n">
-        <v>390.3127942844378</v>
+        <v>390.5264192929025</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29821,28 +30183,28 @@
         <v>0.0813</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0764955233879982</v>
+        <v>0.04423185475335252</v>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K12" t="n">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001677311212019417</v>
+        <v>0.0005699100591519679</v>
       </c>
       <c r="M12" t="n">
-        <v>11.23930878615855</v>
+        <v>11.2410227095106</v>
       </c>
       <c r="N12" t="n">
-        <v>195.0404516522028</v>
+        <v>194.9164690593999</v>
       </c>
       <c r="O12" t="n">
-        <v>13.96568837015214</v>
+        <v>13.96124883595303</v>
       </c>
       <c r="P12" t="n">
-        <v>388.7882667516487</v>
+        <v>389.1009096526498</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29899,28 +30261,28 @@
         <v>0.0563</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004975558375702971</v>
+        <v>-0.03307061861259569</v>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K13" t="n">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L13" t="n">
-        <v>4.981261670367054e-06</v>
+        <v>0.0002237001958447227</v>
       </c>
       <c r="M13" t="n">
-        <v>13.30856152758974</v>
+        <v>13.3010474233113</v>
       </c>
       <c r="N13" t="n">
-        <v>274.6252405115477</v>
+        <v>274.0702389749802</v>
       </c>
       <c r="O13" t="n">
-        <v>16.57182067582038</v>
+        <v>16.55506686712501</v>
       </c>
       <c r="P13" t="n">
-        <v>396.0820169892251</v>
+        <v>396.4537508525635</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29977,28 +30339,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01010315363731598</v>
+        <v>-0.02578607742962252</v>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K14" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L14" t="n">
-        <v>2.803081274060926e-05</v>
+        <v>0.0001865192489914902</v>
       </c>
       <c r="M14" t="n">
-        <v>11.22650973353594</v>
+        <v>11.17035013614656</v>
       </c>
       <c r="N14" t="n">
-        <v>199.76645373483</v>
+        <v>198.5148205758061</v>
       </c>
       <c r="O14" t="n">
-        <v>14.13387610441064</v>
+        <v>14.08952875634264</v>
       </c>
       <c r="P14" t="n">
-        <v>388.3018895186238</v>
+        <v>388.4559180456923</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30036,7 +30398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O501"/>
+  <dimension ref="A1:O507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64193,6 +64555,460 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:17:31+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-35.00678425119492,173.7798086166967</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-35.00666794627868,173.78059625744746</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-35.00643765206051,173.78138650762352</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-35.00613967080332,173.78221402269872</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-35.00584853796309,173.7830350554637</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>-35.00554891087721,173.78383775017585</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>-35.005206806142425,173.78458820774793</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>-35.004779700158934,173.7852741999994</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>-35.004357036696,173.7859213883581</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>-35.00386214491739,173.7865375480537</t>
+        </is>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>-35.00333724483343,173.78722056066607</t>
+        </is>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>-35.00285552977729,173.78792903552147</t>
+        </is>
+      </c>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>-35.00243691979985,173.78865589474748</t>
+        </is>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-35.00681291282148,173.77981567891345</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-35.0066830685537,173.78060279343887</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-35.00646425015008,173.7814020927239</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-35.006168681327985,173.78223046490106</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-35.00587210035295,173.78304870331138</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>-35.00556434188281,173.78384755488477</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>-35.00519956384572,173.78458250458593</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>-35.004819061313995,173.78531130928212</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>-35.00435919428938,173.7859241874804</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>-35.003843374364784,173.78650838242888</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>-35.00329723765077,173.78717477849645</t>
+        </is>
+      </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>-35.00284455772051,173.78791923767864</t>
+        </is>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>-35.00242187817747,173.78864246409742</t>
+        </is>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-35.006802249400366,173.77981305144885</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-35.00664628234467,173.78058689409323</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-35.0064273496819,173.78138047096735</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-35.006128883790694,173.78220790898143</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>-35.00583422488142,173.78302676502048</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>-35.00553627662972,173.78382972250267</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>-35.005193234069246,173.78457752001611</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>-35.00478776212841,173.78528180073553</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>-35.00434668024691,173.78590795257315</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>-35.003881970958524,173.7865683537198</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>-35.003305640473585,173.78718439425083</t>
+        </is>
+      </c>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>-35.002852986585395,173.78792676449805</t>
+        </is>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>-35.002359822385316,173.78858705460783</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr"/>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-35.006549016049284,173.7814517612195</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-35.00623471090714,173.78226788832373</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-35.00592245531634,173.78307787002913</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-35.00560159648193,173.78387122610764</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>-35.00522591565539,173.78460325610843</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>-35.00485743627246,173.78534748883436</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>-35.004398339185904,173.78597497158168</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>-35.003916438129096,173.7866219088109</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>-35.00337845240018,173.7872677165621</t>
+        </is>
+      </c>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>-35.00286446727988,173.7879370165477</t>
+        </is>
+      </c>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>-35.00243459452499,173.78865381851142</t>
+        </is>
+      </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>-35.006991422013236,173.7798596636467</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>-35.00682426640448,173.78066382062318</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>-35.0065462117514,173.78145011804202</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>-35.006265192379246,173.78228516425602</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>-35.00596718100462,173.78310377617944</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>-35.005675812671114,173.78391838245255</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>-35.00533803989178,173.78469155188347</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>-35.004920593314665,173.785407032801</t>
+        </is>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>-35.00448821825037,173.78609157526014</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>-35.00397242253929,173.78670889756614</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>-35.00341772805129,173.78731266173415</t>
+        </is>
+      </c>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>-35.00297069999127,173.78803188058643</t>
+        </is>
+      </c>
+      <c r="N506" t="inlineStr">
+        <is>
+          <t>-35.002560522636536,173.7887662598418</t>
+        </is>
+      </c>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-35.00680292691055,173.7798132183872</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-35.00670039969982,173.78061028412867</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-35.00644302126682,173.7813896536989</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-35.00615961043182,173.78222532381682</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-35.005871093596326,173.78304812017592</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-35.00557787286745,173.78385615234262</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>-35.00524449545941,173.784617887342</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>-35.00482950812326,173.78532115843183</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>-35.00441479852948,173.78599632491114</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>-35.00390655597899,173.7866065539172</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>-35.0033789400636,173.7872682746203</t>
+        </is>
+      </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>-35.00292339665283,173.7879896394553</t>
+        </is>
+      </c>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>-35.002516560440604,173.78872700590463</t>
+        </is>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0045/nzd0045.xlsx
+++ b/data/nzd0045/nzd0045.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O507"/>
+  <dimension ref="A1:O511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24101,6 +24101,210 @@
         </is>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C508" t="n">
+        <v>407.62</v>
+      </c>
+      <c r="D508" t="n">
+        <v>399.328947368421</v>
+      </c>
+      <c r="E508" t="n">
+        <v>392.8</v>
+      </c>
+      <c r="F508" t="n">
+        <v>391.078947368421</v>
+      </c>
+      <c r="G508" t="n">
+        <v>391.3266666666667</v>
+      </c>
+      <c r="H508" t="n">
+        <v>392.1047058823529</v>
+      </c>
+      <c r="I508" t="n">
+        <v>390.838947368421</v>
+      </c>
+      <c r="J508" t="n">
+        <v>387.4</v>
+      </c>
+      <c r="K508" t="n">
+        <v>376.9366666666667</v>
+      </c>
+      <c r="L508" t="n">
+        <v>366.7028571428572</v>
+      </c>
+      <c r="M508" t="n">
+        <v>372.36</v>
+      </c>
+      <c r="N508" t="n">
+        <v>361.65</v>
+      </c>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>416.06</v>
+      </c>
+      <c r="C509" t="n">
+        <v>418.13</v>
+      </c>
+      <c r="D509" t="n">
+        <v>406.3252631578948</v>
+      </c>
+      <c r="E509" t="n">
+        <v>405.51</v>
+      </c>
+      <c r="F509" t="n">
+        <v>398.7152631578948</v>
+      </c>
+      <c r="G509" t="n">
+        <v>398.99</v>
+      </c>
+      <c r="H509" t="n">
+        <v>398.4823529411765</v>
+      </c>
+      <c r="I509" t="n">
+        <v>399.8452631578948</v>
+      </c>
+      <c r="J509" t="n">
+        <v>402.01</v>
+      </c>
+      <c r="K509" t="n">
+        <v>384.56</v>
+      </c>
+      <c r="L509" t="n">
+        <v>382.1985714285714</v>
+      </c>
+      <c r="M509" t="n">
+        <v>380.15</v>
+      </c>
+      <c r="N509" t="n">
+        <v>380.29</v>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>411.9533333333333</v>
+      </c>
+      <c r="C510" t="n">
+        <v>417.37</v>
+      </c>
+      <c r="D510" t="n">
+        <v>405.341052631579</v>
+      </c>
+      <c r="E510" t="n">
+        <v>403.46</v>
+      </c>
+      <c r="F510" t="n">
+        <v>397.901052631579</v>
+      </c>
+      <c r="G510" t="n">
+        <v>402.4911111111111</v>
+      </c>
+      <c r="H510" t="n">
+        <v>398.924705882353</v>
+      </c>
+      <c r="I510" t="n">
+        <v>397.0710526315789</v>
+      </c>
+      <c r="J510" t="n">
+        <v>401.62</v>
+      </c>
+      <c r="K510" t="n">
+        <v>386.4711111111111</v>
+      </c>
+      <c r="L510" t="n">
+        <v>379.6685714285715</v>
+      </c>
+      <c r="M510" t="n">
+        <v>381.28</v>
+      </c>
+      <c r="N510" t="n">
+        <v>386.45</v>
+      </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>387.12</v>
+      </c>
+      <c r="C511" t="n">
+        <v>396.87</v>
+      </c>
+      <c r="D511" t="n">
+        <v>390.5421052631579</v>
+      </c>
+      <c r="E511" t="n">
+        <v>382.07</v>
+      </c>
+      <c r="F511" t="n">
+        <v>378.562105263158</v>
+      </c>
+      <c r="G511" t="n">
+        <v>381.9133333333333</v>
+      </c>
+      <c r="H511" t="n">
+        <v>383.3023529411765</v>
+      </c>
+      <c r="I511" t="n">
+        <v>382.312105263158</v>
+      </c>
+      <c r="J511" t="n">
+        <v>378.41</v>
+      </c>
+      <c r="K511" t="n">
+        <v>369.6233333333333</v>
+      </c>
+      <c r="L511" t="n">
+        <v>360.88</v>
+      </c>
+      <c r="M511" t="n">
+        <v>367.76</v>
+      </c>
+      <c r="N511" t="n">
+        <v>356.18</v>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24112,7 +24316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B511"/>
+  <dimension ref="A1:B515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29230,6 +29434,46 @@
       </c>
       <c r="B511" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -29403,28 +29647,28 @@
         <v>0.1428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1585233291756681</v>
+        <v>0.1622784576511205</v>
       </c>
       <c r="J2" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K2" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01575500778923344</v>
+        <v>0.01658636025290228</v>
       </c>
       <c r="M2" t="n">
-        <v>7.473201833005435</v>
+        <v>7.497228914862051</v>
       </c>
       <c r="N2" t="n">
-        <v>90.94155383267073</v>
+        <v>91.29043044948835</v>
       </c>
       <c r="O2" t="n">
-        <v>9.536328110581699</v>
+        <v>9.554602579358722</v>
       </c>
       <c r="P2" t="n">
-        <v>398.4806236830407</v>
+        <v>398.4445858389251</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29481,28 +29725,28 @@
         <v>0.1145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1594485561688853</v>
+        <v>0.1586033244881014</v>
       </c>
       <c r="J3" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0183848443433261</v>
+        <v>0.01836907070149196</v>
       </c>
       <c r="M3" t="n">
-        <v>6.83760250322713</v>
+        <v>6.846790357878785</v>
       </c>
       <c r="N3" t="n">
-        <v>78.33616953646498</v>
+        <v>78.30316983407863</v>
       </c>
       <c r="O3" t="n">
-        <v>8.850772256501971</v>
+        <v>8.848907832838956</v>
       </c>
       <c r="P3" t="n">
-        <v>406.3705864083496</v>
+        <v>406.3787871106429</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29559,28 +29803,28 @@
         <v>0.105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1551181086515466</v>
+        <v>0.1523415096040288</v>
       </c>
       <c r="J4" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K4" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02173296174187278</v>
+        <v>0.02124019922793219</v>
       </c>
       <c r="M4" t="n">
-        <v>5.984834705714833</v>
+        <v>5.981800334432766</v>
       </c>
       <c r="N4" t="n">
-        <v>62.54374331364225</v>
+        <v>62.34558636029228</v>
       </c>
       <c r="O4" t="n">
-        <v>7.908460236584758</v>
+        <v>7.89592213489294</v>
       </c>
       <c r="P4" t="n">
-        <v>397.9630616338841</v>
+        <v>397.9898126553377</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29637,28 +29881,28 @@
         <v>0.1128</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1924528303443006</v>
+        <v>0.1819223698864232</v>
       </c>
       <c r="J5" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K5" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03505139094123755</v>
+        <v>0.0314004391751237</v>
       </c>
       <c r="M5" t="n">
-        <v>5.532413420050485</v>
+        <v>5.563159348799927</v>
       </c>
       <c r="N5" t="n">
-        <v>58.54777808860497</v>
+        <v>59.1620138955036</v>
       </c>
       <c r="O5" t="n">
-        <v>7.651651984284503</v>
+        <v>7.691684724135773</v>
       </c>
       <c r="P5" t="n">
-        <v>397.091175466405</v>
+        <v>397.1932216416628</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29715,28 +29959,28 @@
         <v>0.1086</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1762726526476747</v>
+        <v>0.1601025041072168</v>
       </c>
       <c r="J6" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K6" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02727132160583434</v>
+        <v>0.02252210587801673</v>
       </c>
       <c r="M6" t="n">
-        <v>5.721749964221043</v>
+        <v>5.762784248935981</v>
       </c>
       <c r="N6" t="n">
-        <v>63.08279985831086</v>
+        <v>63.90304036313319</v>
       </c>
       <c r="O6" t="n">
-        <v>7.942468121327958</v>
+        <v>7.993937725747755</v>
       </c>
       <c r="P6" t="n">
-        <v>396.3991477358755</v>
+        <v>396.5569616426637</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29793,28 +30037,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2396145680576869</v>
+        <v>0.2213483519837042</v>
       </c>
       <c r="J7" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K7" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04341620360158371</v>
+        <v>0.03715868412598933</v>
       </c>
       <c r="M7" t="n">
-        <v>6.261283531025041</v>
+        <v>6.300789403347074</v>
       </c>
       <c r="N7" t="n">
-        <v>72.6088961039224</v>
+        <v>73.54187641256705</v>
       </c>
       <c r="O7" t="n">
-        <v>8.52108538297337</v>
+        <v>8.575656033946736</v>
       </c>
       <c r="P7" t="n">
-        <v>398.1307923535848</v>
+        <v>398.3076650886829</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29871,28 +30115,28 @@
         <v>0.0948</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2031012905208718</v>
+        <v>0.1850379705025933</v>
       </c>
       <c r="J8" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K8" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02875467036450663</v>
+        <v>0.02402602838975187</v>
       </c>
       <c r="M8" t="n">
-        <v>6.455814946704152</v>
+        <v>6.481113764993778</v>
       </c>
       <c r="N8" t="n">
-        <v>80.31153551607582</v>
+        <v>80.92902178013236</v>
       </c>
       <c r="O8" t="n">
-        <v>8.961670353013204</v>
+        <v>8.996055901345454</v>
       </c>
       <c r="P8" t="n">
-        <v>398.4188468677957</v>
+        <v>398.5925919191987</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29949,28 +30193,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.191827076944445</v>
+        <v>0.1748622398917409</v>
       </c>
       <c r="J9" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K9" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03076055294453783</v>
+        <v>0.02567221388748475</v>
       </c>
       <c r="M9" t="n">
-        <v>6.393997556494917</v>
+        <v>6.419948584564753</v>
       </c>
       <c r="N9" t="n">
-        <v>65.43081368614153</v>
+        <v>66.10393235896173</v>
       </c>
       <c r="O9" t="n">
-        <v>8.088931554052213</v>
+        <v>8.130432482897925</v>
       </c>
       <c r="P9" t="n">
-        <v>397.2816971162379</v>
+        <v>397.4479689712549</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30027,28 +30271,28 @@
         <v>0.1109</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1501321737792424</v>
+        <v>0.1304317297764011</v>
       </c>
       <c r="J10" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K10" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01655325953597264</v>
+        <v>0.0124250650629637</v>
       </c>
       <c r="M10" t="n">
-        <v>6.843973649197586</v>
+        <v>6.883682560460803</v>
       </c>
       <c r="N10" t="n">
-        <v>75.91524344851005</v>
+        <v>77.34130043747149</v>
       </c>
       <c r="O10" t="n">
-        <v>8.712935409407674</v>
+        <v>8.794390282303343</v>
       </c>
       <c r="P10" t="n">
-        <v>400.0543546031215</v>
+        <v>400.2477259929919</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30105,28 +30349,28 @@
         <v>0.1017</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07900549919631347</v>
+        <v>0.05636495577924339</v>
       </c>
       <c r="J11" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K11" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003180815759982081</v>
+        <v>0.001622108240154962</v>
       </c>
       <c r="M11" t="n">
-        <v>8.19416254027773</v>
+        <v>8.242941869657868</v>
       </c>
       <c r="N11" t="n">
-        <v>110.8465377987364</v>
+        <v>111.8044932528233</v>
       </c>
       <c r="O11" t="n">
-        <v>10.52836824008053</v>
+        <v>10.57376438421167</v>
       </c>
       <c r="P11" t="n">
-        <v>390.5264192929025</v>
+        <v>390.7486995668893</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30183,28 +30427,28 @@
         <v>0.0813</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04423185475335252</v>
+        <v>0.01332534613170134</v>
       </c>
       <c r="J12" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K12" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0005699100591519679</v>
+        <v>5.175148481884051e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>11.2410227095106</v>
+        <v>11.29229394188267</v>
       </c>
       <c r="N12" t="n">
-        <v>194.9164690593999</v>
+        <v>196.7328755816478</v>
       </c>
       <c r="O12" t="n">
-        <v>13.96124883595303</v>
+        <v>14.02614970623256</v>
       </c>
       <c r="P12" t="n">
-        <v>389.1009096526498</v>
+        <v>389.4021906786974</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30261,28 +30505,28 @@
         <v>0.0563</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.03307061861259569</v>
+        <v>-0.06838686544728426</v>
       </c>
       <c r="J13" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K13" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002237001958447227</v>
+        <v>0.0009599046906761943</v>
       </c>
       <c r="M13" t="n">
-        <v>13.3010474233113</v>
+        <v>13.34845590390119</v>
       </c>
       <c r="N13" t="n">
-        <v>274.0702389749802</v>
+        <v>275.5128866097295</v>
       </c>
       <c r="O13" t="n">
-        <v>16.55506686712501</v>
+        <v>16.59858086131852</v>
       </c>
       <c r="P13" t="n">
-        <v>396.4537508525635</v>
+        <v>396.8008988393512</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30339,28 +30583,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.02578607742962252</v>
+        <v>-0.05557611622855119</v>
       </c>
       <c r="J14" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K14" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001865192489914902</v>
+        <v>0.0008648607700225686</v>
       </c>
       <c r="M14" t="n">
-        <v>11.17035013614656</v>
+        <v>11.19621302577897</v>
       </c>
       <c r="N14" t="n">
-        <v>198.5148205758061</v>
+        <v>200.6885720486169</v>
       </c>
       <c r="O14" t="n">
-        <v>14.08952875634264</v>
+        <v>14.1664594041213</v>
       </c>
       <c r="P14" t="n">
-        <v>388.4559180456923</v>
+        <v>388.7496187675411</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30398,7 +30642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O507"/>
+  <dimension ref="A1:O511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65009,6 +65253,314 @@
         </is>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>-35.00689872095572,173.77983682204513</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>-35.00674109390837,173.78062787257477</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>-35.00648957860841,173.78141693389696</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-35.0062465602733,173.78227460416718</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>-35.005942007811484,173.78308919528138</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>-35.00563865574679,173.7838947732417</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>-35.005277568752234,173.78464393193573</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>-35.00487554756898,173.78536456401102</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>-35.00445474478528,173.78604814875752</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>-35.00393959111626,173.7866578839698</t>
+        </is>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>-35.003430107192706,173.78732682784315</t>
+        </is>
+      </c>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>-35.00295485955096,173.78801773531742</t>
+        </is>
+      </c>
+      <c r="N508" t="inlineStr">
+        <is>
+          <t>-35.002605284131185,173.78880622753024</t>
+        </is>
+      </c>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>-35.006790378243615,173.77981012639935</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>-35.00665180452401,173.7805892808301</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>-35.006432753087154,173.7813836370806</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-35.00614269443559,173.78221573639252</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>-35.00587985023681,173.78305319221428</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>-35.00557742005893,173.78385586463236</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>-35.00522930756033,173.78460592716687</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>-35.004811381821234,173.78530406913345</t>
+        </is>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>-35.00436468074077,173.78593130524916</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>-35.003897241695775,173.78659208138177</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>-35.003328382484405,173.78721041904237</t>
+        </is>
+      </c>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>-35.002898255394356,173.78796718873573</t>
+        </is>
+      </c>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>-35.00246983696789,173.7886852864772</t>
+        </is>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>-35.00682666922373,173.77981906848896</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>-35.00665826122595,173.78059207147672</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>-35.00644074704886,173.78138832112552</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>-35.006159446992235,173.78222523118467</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>-35.005886477694,173.78305703098377</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>-35.00554944359318,173.78383808865826</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>-35.005225960168566,173.78460329116172</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>-35.004831146764815,173.78532270332738</t>
+        </is>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>-35.00436708491597,173.78593442427172</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>-35.00388662501559,173.786575585189</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>-35.003344991182225,173.7872294251982</t>
+        </is>
+      </c>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>-35.00289004451996,173.7879598565673</t>
+        </is>
+      </c>
+      <c r="N510" t="inlineStr">
+        <is>
+          <t>-35.00242507543068,173.78864531892117</t>
+        </is>
+      </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>-35.007046123587564,173.77987314217646</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>-35.00683242223589,173.7806673456656</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>-35.006560947139505,173.78145875223953</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>-35.00633424556985,173.78232430146969</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>-35.00604389154321,173.7831482087677</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>-35.00571387520697,173.78394256710746</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>-35.00534417825659,173.7846963857415</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>-35.004936297263555,173.78542183838033</t>
+        </is>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>-35.00451016401244,173.78612004643023</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>-35.00398021837873,173.78672101078365</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>-35.00346833246998,173.78737057109757</t>
+        </is>
+      </c>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>-35.00298828433121,173.7880475831392</t>
+        </is>
+      </c>
+      <c r="N511" t="inlineStr">
+        <is>
+          <t>-35.00264503174533,173.78884171835523</t>
+        </is>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0045/nzd0045.xlsx
+++ b/data/nzd0045/nzd0045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O511"/>
+  <dimension ref="A1:O512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24305,6 +24305,57 @@
         </is>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>395.7</v>
+      </c>
+      <c r="C512" t="n">
+        <v>407.62</v>
+      </c>
+      <c r="D512" t="n">
+        <v>401.9626315789474</v>
+      </c>
+      <c r="E512" t="n">
+        <v>401.53</v>
+      </c>
+      <c r="F512" t="n">
+        <v>395.7726315789474</v>
+      </c>
+      <c r="G512" t="n">
+        <v>394.0566666666667</v>
+      </c>
+      <c r="H512" t="n">
+        <v>391.7552941176471</v>
+      </c>
+      <c r="I512" t="n">
+        <v>390.6126315789473</v>
+      </c>
+      <c r="J512" t="n">
+        <v>396.41</v>
+      </c>
+      <c r="K512" t="n">
+        <v>376.7766666666667</v>
+      </c>
+      <c r="L512" t="n">
+        <v>381.0414285714286</v>
+      </c>
+      <c r="M512" t="n">
+        <v>383.75</v>
+      </c>
+      <c r="N512" t="n">
+        <v>372.35</v>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24316,7 +24367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B515"/>
+  <dimension ref="A1:B516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29474,6 +29525,16 @@
       </c>
       <c r="B515" t="n">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -29647,28 +29708,28 @@
         <v>0.1428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1622784576511205</v>
+        <v>0.1592750634910103</v>
       </c>
       <c r="J2" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K2" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01658636025290228</v>
+        <v>0.01604133020138898</v>
       </c>
       <c r="M2" t="n">
-        <v>7.497228914862051</v>
+        <v>7.495025789547886</v>
       </c>
       <c r="N2" t="n">
-        <v>91.29043044948835</v>
+        <v>91.18666959044995</v>
       </c>
       <c r="O2" t="n">
-        <v>9.554602579358722</v>
+        <v>9.549171146777606</v>
       </c>
       <c r="P2" t="n">
-        <v>398.4445858389251</v>
+        <v>398.4735454202253</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29725,28 +29786,28 @@
         <v>0.1145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1586033244881014</v>
+        <v>0.1573680947802895</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K3" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01836907070149196</v>
+        <v>0.01816756843060874</v>
       </c>
       <c r="M3" t="n">
-        <v>6.846790357878785</v>
+        <v>6.838003082015496</v>
       </c>
       <c r="N3" t="n">
-        <v>78.30316983407863</v>
+        <v>78.13674360517513</v>
       </c>
       <c r="O3" t="n">
-        <v>8.848907832838956</v>
+        <v>8.839499058497326</v>
       </c>
       <c r="P3" t="n">
-        <v>406.3787871106429</v>
+        <v>406.390716592354</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29803,28 +29864,28 @@
         <v>0.105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1523415096040288</v>
+        <v>0.1523599909069343</v>
       </c>
       <c r="J4" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K4" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02124019922793219</v>
+        <v>0.02134343814168638</v>
       </c>
       <c r="M4" t="n">
-        <v>5.981800334432766</v>
+        <v>5.967575432041707</v>
       </c>
       <c r="N4" t="n">
-        <v>62.34558636029228</v>
+        <v>62.1964384657312</v>
       </c>
       <c r="O4" t="n">
-        <v>7.89592213489294</v>
+        <v>7.886471864257882</v>
       </c>
       <c r="P4" t="n">
-        <v>397.9898126553377</v>
+        <v>397.9896345069026</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29881,28 +29942,28 @@
         <v>0.1128</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1819223698864232</v>
+        <v>0.1817685756845498</v>
       </c>
       <c r="J5" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K5" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0314004391751237</v>
+        <v>0.03148886928074401</v>
       </c>
       <c r="M5" t="n">
-        <v>5.563159348799927</v>
+        <v>5.550958348930902</v>
       </c>
       <c r="N5" t="n">
-        <v>59.1620138955036</v>
+        <v>59.02310711298158</v>
       </c>
       <c r="O5" t="n">
-        <v>7.691684724135773</v>
+        <v>7.682649745561851</v>
       </c>
       <c r="P5" t="n">
-        <v>397.1932216416628</v>
+        <v>397.194714519111</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29959,28 +30020,28 @@
         <v>0.1086</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1601025041072168</v>
+        <v>0.15799083720341</v>
       </c>
       <c r="J6" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K6" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02252210587801673</v>
+        <v>0.02202420575518427</v>
       </c>
       <c r="M6" t="n">
-        <v>5.762784248935981</v>
+        <v>5.761917020451902</v>
       </c>
       <c r="N6" t="n">
-        <v>63.90304036313319</v>
+        <v>63.80979266608297</v>
       </c>
       <c r="O6" t="n">
-        <v>7.993937725747755</v>
+        <v>7.988103195758238</v>
       </c>
       <c r="P6" t="n">
-        <v>396.5569616426637</v>
+        <v>396.5776080684544</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30037,28 +30098,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2213483519837042</v>
+        <v>0.2170803818736047</v>
       </c>
       <c r="J7" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K7" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03715868412598933</v>
+        <v>0.03584034091978761</v>
       </c>
       <c r="M7" t="n">
-        <v>6.300789403347074</v>
+        <v>6.309861443329026</v>
       </c>
       <c r="N7" t="n">
-        <v>73.54187641256705</v>
+        <v>73.60032835082541</v>
       </c>
       <c r="O7" t="n">
-        <v>8.575656033946736</v>
+        <v>8.579063372584761</v>
       </c>
       <c r="P7" t="n">
-        <v>398.3076650886829</v>
+        <v>398.3490735356202</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30115,28 +30176,28 @@
         <v>0.0948</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1850379705025933</v>
+        <v>0.1800362393527195</v>
       </c>
       <c r="J8" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K8" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02402602838975187</v>
+        <v>0.0227909371785634</v>
       </c>
       <c r="M8" t="n">
-        <v>6.481113764993778</v>
+        <v>6.490095441145587</v>
       </c>
       <c r="N8" t="n">
-        <v>80.92902178013236</v>
+        <v>81.05305093452417</v>
       </c>
       <c r="O8" t="n">
-        <v>8.996055901345454</v>
+        <v>9.00294679171904</v>
       </c>
       <c r="P8" t="n">
-        <v>398.5925919191987</v>
+        <v>398.6407967459124</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30193,28 +30254,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1748622398917409</v>
+        <v>0.1699211988293</v>
       </c>
       <c r="J9" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K9" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02567221388748475</v>
+        <v>0.0242788000781754</v>
       </c>
       <c r="M9" t="n">
-        <v>6.419948584564753</v>
+        <v>6.429949727176388</v>
       </c>
       <c r="N9" t="n">
-        <v>66.10393235896173</v>
+        <v>66.24889832304531</v>
       </c>
       <c r="O9" t="n">
-        <v>8.130432482897925</v>
+        <v>8.139342622291146</v>
       </c>
       <c r="P9" t="n">
-        <v>397.4479689712549</v>
+        <v>397.4964892564753</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30271,28 +30332,28 @@
         <v>0.1109</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1304317297764011</v>
+        <v>0.1273731171193329</v>
       </c>
       <c r="J10" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K10" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0124250650629637</v>
+        <v>0.01189049175385903</v>
       </c>
       <c r="M10" t="n">
-        <v>6.883682560460803</v>
+        <v>6.884030292348381</v>
       </c>
       <c r="N10" t="n">
-        <v>77.34130043747149</v>
+        <v>77.28155744541471</v>
       </c>
       <c r="O10" t="n">
-        <v>8.794390282303343</v>
+        <v>8.790992972663254</v>
       </c>
       <c r="P10" t="n">
-        <v>400.2477259929919</v>
+        <v>400.2778079699127</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30349,28 +30410,28 @@
         <v>0.1017</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05636495577924339</v>
+        <v>0.04975271064048652</v>
       </c>
       <c r="J11" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K11" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001622108240154962</v>
+        <v>0.001263781755680315</v>
       </c>
       <c r="M11" t="n">
-        <v>8.242941869657868</v>
+        <v>8.260608568352648</v>
       </c>
       <c r="N11" t="n">
-        <v>111.8044932528233</v>
+        <v>112.0954721414981</v>
       </c>
       <c r="O11" t="n">
-        <v>10.57376438421167</v>
+        <v>10.58751491812399</v>
       </c>
       <c r="P11" t="n">
-        <v>390.7486995668893</v>
+        <v>390.8137514105401</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30427,28 +30488,28 @@
         <v>0.0813</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01332534613170134</v>
+        <v>0.009575025378294319</v>
       </c>
       <c r="J12" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K12" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L12" t="n">
-        <v>5.175148481884051e-05</v>
+        <v>2.682041055168671e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>11.29229394188267</v>
+        <v>11.28515105069267</v>
       </c>
       <c r="N12" t="n">
-        <v>196.7328755816478</v>
+        <v>196.4496899858757</v>
       </c>
       <c r="O12" t="n">
-        <v>14.02614970623256</v>
+        <v>14.0160511552247</v>
       </c>
       <c r="P12" t="n">
-        <v>389.4021906786974</v>
+        <v>389.4388264422331</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30505,28 +30566,28 @@
         <v>0.0563</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.06838686544728426</v>
+        <v>-0.07330123839046569</v>
       </c>
       <c r="J13" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K13" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0009599046906761943</v>
+        <v>0.001106596556530781</v>
       </c>
       <c r="M13" t="n">
-        <v>13.34845590390119</v>
+        <v>13.34144349633494</v>
       </c>
       <c r="N13" t="n">
-        <v>275.5128866097295</v>
+        <v>275.1655335398199</v>
       </c>
       <c r="O13" t="n">
-        <v>16.59858086131852</v>
+        <v>16.58811422494492</v>
       </c>
       <c r="P13" t="n">
-        <v>396.8008988393512</v>
+        <v>396.8493074293311</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30583,28 +30644,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.05557611622855119</v>
+        <v>-0.06224854236753383</v>
       </c>
       <c r="J14" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K14" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0008648607700225686</v>
+        <v>0.001087060341946167</v>
       </c>
       <c r="M14" t="n">
-        <v>11.19621302577897</v>
+        <v>11.19955589491676</v>
       </c>
       <c r="N14" t="n">
-        <v>200.6885720486169</v>
+        <v>200.7399767844057</v>
       </c>
       <c r="O14" t="n">
-        <v>14.1664594041213</v>
+        <v>14.16827359929239</v>
       </c>
       <c r="P14" t="n">
-        <v>388.7496187675411</v>
+        <v>388.8155378482269</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30642,7 +30703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O511"/>
+  <dimension ref="A1:O512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65561,6 +65622,83 @@
         </is>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>-35.00697030137249,173.77985445950208</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>-35.00674109390837,173.78062787257477</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>-35.006468187282735,173.78140439968033</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>-35.00617521891065,173.78223417018773</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>-35.005903802474776,173.78306706588256</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>-35.005616841034,173.78388091236022</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>-35.00528021283486,173.78464601410204</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>-35.00487715996172,173.7853660841617</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>-35.00439920222274,173.78597609123167</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>-35.00394047995371,173.786659265048</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>-35.00333597878363,173.78721911186256</t>
+        </is>
+      </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>-35.00287209685481,173.78794382962022</t>
+        </is>
+      </c>
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>-35.00252753282465,173.78873680316434</t>
+        </is>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0045/nzd0045.xlsx
+++ b/data/nzd0045/nzd0045.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O512"/>
+  <dimension ref="A1:O515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24356,6 +24356,159 @@
         </is>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>396.6833333333333</v>
+      </c>
+      <c r="C513" t="n">
+        <v>408.07</v>
+      </c>
+      <c r="D513" t="n">
+        <v>398.4221052631579</v>
+      </c>
+      <c r="E513" t="n">
+        <v>397.09</v>
+      </c>
+      <c r="F513" t="n">
+        <v>389.8821052631579</v>
+      </c>
+      <c r="G513" t="n">
+        <v>392.5644444444445</v>
+      </c>
+      <c r="H513" t="n">
+        <v>387.83</v>
+      </c>
+      <c r="I513" t="n">
+        <v>385.7321052631579</v>
+      </c>
+      <c r="J513" t="n">
+        <v>389.96</v>
+      </c>
+      <c r="K513" t="n">
+        <v>376.6244444444445</v>
+      </c>
+      <c r="L513" t="n">
+        <v>376.8357142857143</v>
+      </c>
+      <c r="M513" t="n">
+        <v>373.89</v>
+      </c>
+      <c r="N513" t="n">
+        <v>371.88</v>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>405.4166666666667</v>
+      </c>
+      <c r="C514" t="n">
+        <v>410.13</v>
+      </c>
+      <c r="D514" t="n">
+        <v>402.898947368421</v>
+      </c>
+      <c r="E514" t="n">
+        <v>396.64</v>
+      </c>
+      <c r="F514" t="n">
+        <v>392.328947368421</v>
+      </c>
+      <c r="G514" t="n">
+        <v>395.3988888888889</v>
+      </c>
+      <c r="H514" t="n">
+        <v>397.1652941176471</v>
+      </c>
+      <c r="I514" t="n">
+        <v>395.8689473684211</v>
+      </c>
+      <c r="J514" t="n">
+        <v>392.4</v>
+      </c>
+      <c r="K514" t="n">
+        <v>385.8088888888889</v>
+      </c>
+      <c r="L514" t="n">
+        <v>373.7414285714286</v>
+      </c>
+      <c r="M514" t="n">
+        <v>384.97</v>
+      </c>
+      <c r="N514" t="n">
+        <v>370.31</v>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>407.7166666666667</v>
+      </c>
+      <c r="C515" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="D515" t="n">
+        <v>399.5452631578947</v>
+      </c>
+      <c r="E515" t="n">
+        <v>399.13</v>
+      </c>
+      <c r="F515" t="n">
+        <v>393.7852631578948</v>
+      </c>
+      <c r="G515" t="n">
+        <v>397.0455555555556</v>
+      </c>
+      <c r="H515" t="n">
+        <v>393.3311764705882</v>
+      </c>
+      <c r="I515" t="n">
+        <v>393.4152631578947</v>
+      </c>
+      <c r="J515" t="n">
+        <v>393.62</v>
+      </c>
+      <c r="K515" t="n">
+        <v>382.2255555555556</v>
+      </c>
+      <c r="L515" t="n">
+        <v>383.0514285714286</v>
+      </c>
+      <c r="M515" t="n">
+        <v>397.61</v>
+      </c>
+      <c r="N515" t="n">
+        <v>395.74</v>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24367,7 +24520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B516"/>
+  <dimension ref="A1:B519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29535,6 +29688,36 @@
       </c>
       <c r="B516" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -29708,28 +29891,28 @@
         <v>0.1428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1592750634910103</v>
+        <v>0.1601585723587755</v>
       </c>
       <c r="J2" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K2" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01604133020138898</v>
+        <v>0.01640826333522483</v>
       </c>
       <c r="M2" t="n">
-        <v>7.495025789547886</v>
+        <v>7.474845724503121</v>
       </c>
       <c r="N2" t="n">
-        <v>91.18666959044995</v>
+        <v>90.70325172869528</v>
       </c>
       <c r="O2" t="n">
-        <v>9.549171146777606</v>
+        <v>9.523825477647902</v>
       </c>
       <c r="P2" t="n">
-        <v>398.4735454202253</v>
+        <v>398.4649662209918</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29786,28 +29969,28 @@
         <v>0.1145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1573680947802895</v>
+        <v>0.1566633286750597</v>
       </c>
       <c r="J3" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K3" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01816756843060874</v>
+        <v>0.01824901827992031</v>
       </c>
       <c r="M3" t="n">
-        <v>6.838003082015496</v>
+        <v>6.798913885114307</v>
       </c>
       <c r="N3" t="n">
-        <v>78.13674360517513</v>
+        <v>77.60129297053038</v>
       </c>
       <c r="O3" t="n">
-        <v>8.839499058497326</v>
+        <v>8.809159606371676</v>
       </c>
       <c r="P3" t="n">
-        <v>406.390716592354</v>
+        <v>406.3975157324086</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29864,28 +30047,28 @@
         <v>0.105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1523599909069343</v>
+        <v>0.1502513186423239</v>
       </c>
       <c r="J4" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K4" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02134343814168638</v>
+        <v>0.02103930991930969</v>
       </c>
       <c r="M4" t="n">
-        <v>5.967575432041707</v>
+        <v>5.942984340407216</v>
       </c>
       <c r="N4" t="n">
-        <v>62.1964384657312</v>
+        <v>61.79765431105974</v>
       </c>
       <c r="O4" t="n">
-        <v>7.886471864257882</v>
+        <v>7.861148409174053</v>
       </c>
       <c r="P4" t="n">
-        <v>397.9896345069026</v>
+        <v>398.0099809881303</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29942,28 +30125,28 @@
         <v>0.1128</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1817685756845498</v>
+        <v>0.1763559038922918</v>
       </c>
       <c r="J5" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K5" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03148886928074401</v>
+        <v>0.03002462990157928</v>
       </c>
       <c r="M5" t="n">
-        <v>5.550958348930902</v>
+        <v>5.543177075805856</v>
       </c>
       <c r="N5" t="n">
-        <v>59.02310711298158</v>
+        <v>58.74270331144989</v>
       </c>
       <c r="O5" t="n">
-        <v>7.682649745561851</v>
+        <v>7.664378860119709</v>
       </c>
       <c r="P5" t="n">
-        <v>397.194714519111</v>
+        <v>397.2473090338535</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30020,28 +30203,28 @@
         <v>0.1086</v>
       </c>
       <c r="I6" t="n">
-        <v>0.15799083720341</v>
+        <v>0.1470369181384512</v>
       </c>
       <c r="J6" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K6" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02202420575518427</v>
+        <v>0.01923026637438674</v>
       </c>
       <c r="M6" t="n">
-        <v>5.761917020451902</v>
+        <v>5.786798191926001</v>
       </c>
       <c r="N6" t="n">
-        <v>63.80979266608297</v>
+        <v>63.89492168144113</v>
       </c>
       <c r="O6" t="n">
-        <v>7.988103195758238</v>
+        <v>7.993429907207614</v>
       </c>
       <c r="P6" t="n">
-        <v>396.5776080684544</v>
+        <v>396.6848185452625</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30098,28 +30281,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2170803818736047</v>
+        <v>0.2057880190946079</v>
       </c>
       <c r="J7" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K7" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03584034091978761</v>
+        <v>0.03250729614780679</v>
       </c>
       <c r="M7" t="n">
-        <v>6.309861443329026</v>
+        <v>6.329010876014909</v>
       </c>
       <c r="N7" t="n">
-        <v>73.60032835082541</v>
+        <v>73.65825797757917</v>
       </c>
       <c r="O7" t="n">
-        <v>8.579063372584761</v>
+        <v>8.582438929440697</v>
       </c>
       <c r="P7" t="n">
-        <v>398.3490735356202</v>
+        <v>398.4587453372927</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30176,28 +30359,28 @@
         <v>0.0948</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1800362393527195</v>
+        <v>0.1667032817672657</v>
       </c>
       <c r="J8" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K8" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0227909371785634</v>
+        <v>0.01966420682994019</v>
       </c>
       <c r="M8" t="n">
-        <v>6.490095441145587</v>
+        <v>6.510409967766475</v>
       </c>
       <c r="N8" t="n">
-        <v>81.05305093452417</v>
+        <v>81.34539739221941</v>
       </c>
       <c r="O8" t="n">
-        <v>9.00294679171904</v>
+        <v>9.019168331515907</v>
       </c>
       <c r="P8" t="n">
-        <v>398.6407967459124</v>
+        <v>398.76942541708</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30254,28 +30437,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1699211988293</v>
+        <v>0.1568318066430599</v>
       </c>
       <c r="J9" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K9" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0242788000781754</v>
+        <v>0.02077625666671734</v>
       </c>
       <c r="M9" t="n">
-        <v>6.429949727176388</v>
+        <v>6.451746613277241</v>
       </c>
       <c r="N9" t="n">
-        <v>66.24889832304531</v>
+        <v>66.63027179159857</v>
       </c>
       <c r="O9" t="n">
-        <v>8.139342622291146</v>
+        <v>8.162736783187277</v>
       </c>
       <c r="P9" t="n">
-        <v>397.4964892564753</v>
+        <v>397.6251432231361</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30332,28 +30515,28 @@
         <v>0.1109</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1273731171193329</v>
+        <v>0.1128958196826522</v>
       </c>
       <c r="J10" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K10" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01189049175385903</v>
+        <v>0.009377451265850656</v>
       </c>
       <c r="M10" t="n">
-        <v>6.884030292348381</v>
+        <v>6.914829317846231</v>
       </c>
       <c r="N10" t="n">
-        <v>77.28155744541471</v>
+        <v>77.6698558699288</v>
       </c>
       <c r="O10" t="n">
-        <v>8.790992972663254</v>
+        <v>8.813050315862766</v>
       </c>
       <c r="P10" t="n">
-        <v>400.2778079699127</v>
+        <v>400.4203491671043</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30410,28 +30593,28 @@
         <v>0.1017</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04975271064048652</v>
+        <v>0.03644117488243833</v>
       </c>
       <c r="J11" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K11" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001263781755680315</v>
+        <v>0.0006822728640446529</v>
       </c>
       <c r="M11" t="n">
-        <v>8.260608568352648</v>
+        <v>8.278114739784877</v>
       </c>
       <c r="N11" t="n">
-        <v>112.0954721414981</v>
+        <v>112.1731097281363</v>
       </c>
       <c r="O11" t="n">
-        <v>10.58751491812399</v>
+        <v>10.59118075231163</v>
       </c>
       <c r="P11" t="n">
-        <v>390.8137514105401</v>
+        <v>390.9448443883668</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30488,28 +30671,28 @@
         <v>0.0813</v>
       </c>
       <c r="I12" t="n">
-        <v>0.009575025378294319</v>
+        <v>-0.005405692708236715</v>
       </c>
       <c r="J12" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K12" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L12" t="n">
-        <v>2.682041055168671e-05</v>
+        <v>8.619161527612107e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>11.28515105069267</v>
+        <v>11.28373206550947</v>
       </c>
       <c r="N12" t="n">
-        <v>196.4496899858757</v>
+        <v>196.1383873045118</v>
       </c>
       <c r="O12" t="n">
-        <v>14.0160511552247</v>
+        <v>14.00494153163489</v>
       </c>
       <c r="P12" t="n">
-        <v>389.4388264422331</v>
+        <v>389.5853131255517</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30566,28 +30749,28 @@
         <v>0.0563</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.07330123839046569</v>
+        <v>-0.08542006339786151</v>
       </c>
       <c r="J13" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K13" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001106596556530781</v>
+        <v>0.001515872361852244</v>
       </c>
       <c r="M13" t="n">
-        <v>13.34144349633494</v>
+        <v>13.32146329304643</v>
       </c>
       <c r="N13" t="n">
-        <v>275.1655335398199</v>
+        <v>274.5165622670106</v>
       </c>
       <c r="O13" t="n">
-        <v>16.58811422494492</v>
+        <v>16.56854134397505</v>
       </c>
       <c r="P13" t="n">
-        <v>396.8493074293311</v>
+        <v>396.9687151265497</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30644,28 +30827,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06224854236753383</v>
+        <v>-0.07259302215245063</v>
       </c>
       <c r="J14" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K14" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001087060341946167</v>
+        <v>0.001488334394480373</v>
       </c>
       <c r="M14" t="n">
-        <v>11.19955589491676</v>
+        <v>11.20796205170798</v>
       </c>
       <c r="N14" t="n">
-        <v>200.7399767844057</v>
+        <v>200.7099187631981</v>
       </c>
       <c r="O14" t="n">
-        <v>14.16827359929239</v>
+        <v>14.16721280856606</v>
       </c>
       <c r="P14" t="n">
-        <v>388.8155378482269</v>
+        <v>388.9177403755714</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30703,7 +30886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O512"/>
+  <dimension ref="A1:O515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65699,6 +65882,237 @@
         </is>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>-35.006961611569004,173.7798523183276</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>-35.00673727086178,173.78062622021477</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>-35.006496944166464,173.78142124973687</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>-35.00621150249219,173.78225473453952</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>-35.00595174978605,173.78309483805808</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>-35.00562876498998,173.78388848873857</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>-35.005309916474374,173.7846694051813</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>-35.0049119313936,173.78539886640223</t>
+        </is>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>-35.00443896355117,173.78602767513317</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>-35.003941325583796,173.7866605789905</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>-35.00336358804343,173.78725070652132</t>
+        </is>
+      </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>-35.00294374217667,173.78800780767776</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>-35.002530948069854,173.78873985264306</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-35.006884434328875,173.77983330181576</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-35.00671976980364,173.78061865607992</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-35.006460582332664,173.78139994357252</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-35.00621517988199,173.7822568187654</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-35.00593183314556,173.78308330188148</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>-35.0056061156882,173.78387409757062</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>-35.00523927406282,173.78461377559316</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>-35.00483971119781,173.78533077779403</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>-35.00442392205908,173.7860081612173</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>-35.00389030381898,173.78658130131114</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>-35.003383901100676,173.78727395178993</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>-35.002863232015336,173.7879359134789</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>-35.00254235644151,173.7887500392015</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-35.00686410902445,173.7798282936566</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-35.00670813075011,173.78061362556485</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-35.00648782164707,173.7814159044077</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-35.00619483165792,173.78224528605128</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-35.00591997912384,173.78307643576227</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>-35.0055929576061,173.78386573704475</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>-35.005268287754774,173.78463662332285</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>-35.00485719253864,173.78534725904424</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>-35.00441640131179,173.78599840426205</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>-35.003910210090964,173.78661223167884</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>-35.003322783730134,173.78720401211297</t>
+        </is>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>-35.002771386432734,173.78785389716504</t>
+        </is>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>-35.00235756977408,173.78858504325788</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0045/nzd0045.xlsx
+++ b/data/nzd0045/nzd0045.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O515"/>
+  <dimension ref="A1:O519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24509,6 +24509,210 @@
         </is>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>405.8266666666667</v>
+      </c>
+      <c r="C516" t="n">
+        <v>410</v>
+      </c>
+      <c r="D516" t="n">
+        <v>406.2978947368421</v>
+      </c>
+      <c r="E516" t="n">
+        <v>407.29</v>
+      </c>
+      <c r="F516" t="n">
+        <v>396.1378947368421</v>
+      </c>
+      <c r="G516" t="n">
+        <v>406.3655555555556</v>
+      </c>
+      <c r="H516" t="n">
+        <v>399.49</v>
+      </c>
+      <c r="I516" t="n">
+        <v>396.2178947368421</v>
+      </c>
+      <c r="J516" t="n">
+        <v>401.51</v>
+      </c>
+      <c r="K516" t="n">
+        <v>379.8655555555556</v>
+      </c>
+      <c r="L516" t="n">
+        <v>378.1742857142857</v>
+      </c>
+      <c r="M516" t="n">
+        <v>383.74</v>
+      </c>
+      <c r="N516" t="n">
+        <v>372.48</v>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>405.7733333333333</v>
+      </c>
+      <c r="C517" t="n">
+        <v>417.97</v>
+      </c>
+      <c r="D517" t="n">
+        <v>407.9905263157895</v>
+      </c>
+      <c r="E517" t="n">
+        <v>403.77</v>
+      </c>
+      <c r="F517" t="n">
+        <v>399.4505263157895</v>
+      </c>
+      <c r="G517" t="n">
+        <v>394.5044444444445</v>
+      </c>
+      <c r="H517" t="n">
+        <v>395.5058823529412</v>
+      </c>
+      <c r="I517" t="n">
+        <v>394.1405263157895</v>
+      </c>
+      <c r="J517" t="n">
+        <v>395.74</v>
+      </c>
+      <c r="K517" t="n">
+        <v>379.1144444444445</v>
+      </c>
+      <c r="L517" t="n">
+        <v>374.1742857142857</v>
+      </c>
+      <c r="M517" t="n">
+        <v>380.25</v>
+      </c>
+      <c r="N517" t="n">
+        <v>369.29</v>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>403.16</v>
+      </c>
+      <c r="C518" t="n">
+        <v>414.56</v>
+      </c>
+      <c r="D518" t="n">
+        <v>402.1873684210527</v>
+      </c>
+      <c r="E518" t="n">
+        <v>400.5700000000001</v>
+      </c>
+      <c r="F518" t="n">
+        <v>396.2073684210527</v>
+      </c>
+      <c r="G518" t="n">
+        <v>401.6333333333333</v>
+      </c>
+      <c r="H518" t="n">
+        <v>403.4047058823529</v>
+      </c>
+      <c r="I518" t="n">
+        <v>395.7673684210527</v>
+      </c>
+      <c r="J518" t="n">
+        <v>399.11</v>
+      </c>
+      <c r="K518" t="n">
+        <v>380.1633333333333</v>
+      </c>
+      <c r="L518" t="n">
+        <v>383.2385714285714</v>
+      </c>
+      <c r="M518" t="n">
+        <v>386.25</v>
+      </c>
+      <c r="N518" t="n">
+        <v>374.58</v>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>409.7266666666667</v>
+      </c>
+      <c r="C519" t="n">
+        <v>411.76</v>
+      </c>
+      <c r="D519" t="n">
+        <v>404.8436842105263</v>
+      </c>
+      <c r="E519" t="n">
+        <v>401.91</v>
+      </c>
+      <c r="F519" t="n">
+        <v>398.2336842105263</v>
+      </c>
+      <c r="G519" t="n">
+        <v>399.2222222222222</v>
+      </c>
+      <c r="H519" t="n">
+        <v>395.3811764705882</v>
+      </c>
+      <c r="I519" t="n">
+        <v>399.1136842105263</v>
+      </c>
+      <c r="J519" t="n">
+        <v>396.79</v>
+      </c>
+      <c r="K519" t="n">
+        <v>386.9222222222222</v>
+      </c>
+      <c r="L519" t="n">
+        <v>380.4571428571429</v>
+      </c>
+      <c r="M519" t="n">
+        <v>387.94</v>
+      </c>
+      <c r="N519" t="n">
+        <v>379.4</v>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24520,7 +24724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B519"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29718,6 +29922,46 @@
       </c>
       <c r="B519" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -29891,28 +30135,28 @@
         <v>0.1428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1601585723587755</v>
+        <v>0.1660099227879577</v>
       </c>
       <c r="J2" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K2" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01640826333522483</v>
+        <v>0.01788896575318388</v>
       </c>
       <c r="M2" t="n">
-        <v>7.474845724503121</v>
+        <v>7.438235589884122</v>
       </c>
       <c r="N2" t="n">
-        <v>90.70325172869528</v>
+        <v>90.01720906177847</v>
       </c>
       <c r="O2" t="n">
-        <v>9.523825477647902</v>
+        <v>9.487739934345717</v>
       </c>
       <c r="P2" t="n">
-        <v>398.4649662209918</v>
+        <v>398.4082377355576</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29969,28 +30213,28 @@
         <v>0.1145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1566633286750597</v>
+        <v>0.1618560618590929</v>
       </c>
       <c r="J3" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K3" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01824901827992031</v>
+        <v>0.01975721624435423</v>
       </c>
       <c r="M3" t="n">
-        <v>6.798913885114307</v>
+        <v>6.76379017673787</v>
       </c>
       <c r="N3" t="n">
-        <v>77.60129297053038</v>
+        <v>77.05075425585336</v>
       </c>
       <c r="O3" t="n">
-        <v>8.809159606371676</v>
+        <v>8.777855903115142</v>
       </c>
       <c r="P3" t="n">
-        <v>406.3975157324086</v>
+        <v>406.3471287673871</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30047,28 +30291,28 @@
         <v>0.105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1502513186423239</v>
+        <v>0.1560193682019567</v>
       </c>
       <c r="J4" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K4" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02103930991930969</v>
+        <v>0.02299994373028025</v>
       </c>
       <c r="M4" t="n">
-        <v>5.942984340407216</v>
+        <v>5.914234910802072</v>
       </c>
       <c r="N4" t="n">
-        <v>61.79765431105974</v>
+        <v>61.36645150581871</v>
       </c>
       <c r="O4" t="n">
-        <v>7.861148409174053</v>
+        <v>7.833674202174782</v>
       </c>
       <c r="P4" t="n">
-        <v>398.0099809881303</v>
+        <v>397.9541386714025</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30125,28 +30369,28 @@
         <v>0.1128</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1763559038922918</v>
+        <v>0.1789502346952882</v>
       </c>
       <c r="J5" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K5" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03002462990157928</v>
+        <v>0.0313819130180083</v>
       </c>
       <c r="M5" t="n">
-        <v>5.543177075805856</v>
+        <v>5.511348530182126</v>
       </c>
       <c r="N5" t="n">
-        <v>58.74270331144989</v>
+        <v>58.28023069934346</v>
       </c>
       <c r="O5" t="n">
-        <v>7.664378860119709</v>
+        <v>7.634148983308058</v>
       </c>
       <c r="P5" t="n">
-        <v>397.2473090338535</v>
+        <v>397.2220482488947</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30203,28 +30447,28 @@
         <v>0.1086</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1470369181384512</v>
+        <v>0.1421011384895784</v>
       </c>
       <c r="J6" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K6" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01923026637438674</v>
+        <v>0.01827110787894337</v>
       </c>
       <c r="M6" t="n">
-        <v>5.786798191926001</v>
+        <v>5.762541866198026</v>
       </c>
       <c r="N6" t="n">
-        <v>63.89492168144113</v>
+        <v>63.40523094001965</v>
       </c>
       <c r="O6" t="n">
-        <v>7.993429907207614</v>
+        <v>7.962740165296093</v>
       </c>
       <c r="P6" t="n">
-        <v>396.6848185452625</v>
+        <v>396.7333175216195</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30281,28 +30525,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2057880190946079</v>
+        <v>0.200253036379537</v>
       </c>
       <c r="J7" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K7" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03250729614780679</v>
+        <v>0.03125820788129774</v>
       </c>
       <c r="M7" t="n">
-        <v>6.329010876014909</v>
+        <v>6.314237370494225</v>
       </c>
       <c r="N7" t="n">
-        <v>73.65825797757917</v>
+        <v>73.25019730972508</v>
       </c>
       <c r="O7" t="n">
-        <v>8.582438929440697</v>
+        <v>8.5586329112613</v>
       </c>
       <c r="P7" t="n">
-        <v>398.4587453372927</v>
+        <v>398.5127236993781</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30359,28 +30603,28 @@
         <v>0.0948</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1667032817672657</v>
+        <v>0.1590147833982709</v>
       </c>
       <c r="J8" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K8" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01966420682994019</v>
+        <v>0.01817782883890562</v>
       </c>
       <c r="M8" t="n">
-        <v>6.510409967766475</v>
+        <v>6.490315306294627</v>
       </c>
       <c r="N8" t="n">
-        <v>81.34539739221941</v>
+        <v>80.88956113434269</v>
       </c>
       <c r="O8" t="n">
-        <v>9.019168331515907</v>
+        <v>8.993862414688291</v>
       </c>
       <c r="P8" t="n">
-        <v>398.76942541708</v>
+        <v>398.8438906678865</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30437,28 +30681,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1568318066430599</v>
+        <v>0.1478321004658089</v>
       </c>
       <c r="J9" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K9" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02077625666671734</v>
+        <v>0.018750882115949</v>
       </c>
       <c r="M9" t="n">
-        <v>6.451746613277241</v>
+        <v>6.438115036036292</v>
       </c>
       <c r="N9" t="n">
-        <v>66.63027179159857</v>
+        <v>66.30423341248792</v>
       </c>
       <c r="O9" t="n">
-        <v>8.162736783187277</v>
+        <v>8.142741148562191</v>
       </c>
       <c r="P9" t="n">
-        <v>397.6251432231361</v>
+        <v>397.7139176488574</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30515,28 +30759,28 @@
         <v>0.1109</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1128958196826522</v>
+        <v>0.1046234952373238</v>
       </c>
       <c r="J10" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K10" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009377451265850656</v>
+        <v>0.008175812057616638</v>
       </c>
       <c r="M10" t="n">
-        <v>6.914829317846231</v>
+        <v>6.896336774963871</v>
       </c>
       <c r="N10" t="n">
-        <v>77.6698558699288</v>
+        <v>77.23412886189691</v>
       </c>
       <c r="O10" t="n">
-        <v>8.813050315862766</v>
+        <v>8.788294991743102</v>
       </c>
       <c r="P10" t="n">
-        <v>400.4203491671043</v>
+        <v>400.5021288188806</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30593,28 +30837,28 @@
         <v>0.1017</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03644117488243833</v>
+        <v>0.01933616752956583</v>
       </c>
       <c r="J11" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K11" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006822728640446529</v>
+        <v>0.0001937503461253431</v>
       </c>
       <c r="M11" t="n">
-        <v>8.278114739784877</v>
+        <v>8.298642439305377</v>
       </c>
       <c r="N11" t="n">
-        <v>112.1731097281363</v>
+        <v>112.1956370694883</v>
       </c>
       <c r="O11" t="n">
-        <v>10.59118075231163</v>
+        <v>10.59224419419645</v>
       </c>
       <c r="P11" t="n">
-        <v>390.9448443883668</v>
+        <v>391.1138983235942</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30671,28 +30915,28 @@
         <v>0.0813</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.005405692708236715</v>
+        <v>-0.02269387001411975</v>
       </c>
       <c r="J12" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K12" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L12" t="n">
-        <v>8.619161527612107e-06</v>
+        <v>0.0001537642845028664</v>
       </c>
       <c r="M12" t="n">
-        <v>11.28373206550947</v>
+        <v>11.26845004361808</v>
       </c>
       <c r="N12" t="n">
-        <v>196.1383873045118</v>
+        <v>195.4122466362642</v>
       </c>
       <c r="O12" t="n">
-        <v>14.00494153163489</v>
+        <v>13.97899304800829</v>
       </c>
       <c r="P12" t="n">
-        <v>389.5853131255517</v>
+        <v>389.7549693559352</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30749,28 +30993,28 @@
         <v>0.0563</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.08542006339786151</v>
+        <v>-0.1025143229250263</v>
       </c>
       <c r="J13" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K13" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001515872361852244</v>
+        <v>0.002213073121234865</v>
       </c>
       <c r="M13" t="n">
-        <v>13.32146329304643</v>
+        <v>13.28389239975376</v>
       </c>
       <c r="N13" t="n">
-        <v>274.5165622670106</v>
+        <v>273.00615291488</v>
       </c>
       <c r="O13" t="n">
-        <v>16.56854134397505</v>
+        <v>16.52289783648377</v>
       </c>
       <c r="P13" t="n">
-        <v>396.9687151265497</v>
+        <v>397.1378534338056</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30827,28 +31071,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.07259302215245063</v>
+        <v>-0.09502432737998064</v>
       </c>
       <c r="J14" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K14" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001488334394480373</v>
+        <v>0.002572937440481038</v>
       </c>
       <c r="M14" t="n">
-        <v>11.20796205170798</v>
+        <v>11.20936705822413</v>
       </c>
       <c r="N14" t="n">
-        <v>200.7099187631981</v>
+        <v>200.5208938559871</v>
       </c>
       <c r="O14" t="n">
-        <v>14.16721280856606</v>
+        <v>14.16054002699004</v>
       </c>
       <c r="P14" t="n">
-        <v>388.9177403755714</v>
+        <v>389.1403251467937</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30886,7 +31130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O515"/>
+  <dimension ref="A1:O519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66113,6 +66357,314 @@
         </is>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>-35.00688081112245,173.77983240905675</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>-35.00672087423937,173.78061913342813</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>-35.00643297537915,173.7813837673321</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-35.006128148312555,173.78220749213713</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>-35.005900829329974,173.78306534377057</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>-35.00551848391476,173.78381841719624</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>-35.00522168245108,173.7845999225437</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>-35.00483722511246,173.78532843393597</t>
+        </is>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>-35.00436776301665,173.78593530399604</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>-35.003923320449815,173.78663260257105</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>-35.00335480072221,173.78724065074616</t>
+        </is>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>-35.00287216951743,173.7879438945066</t>
+        </is>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>-35.002526588182356,173.78873595969156</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>-35.00688128243386,173.77983252518803</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>-35.00665316382969,173.78058986833463</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>-35.00641922747448,173.78137571177888</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>-35.00615691367884,173.78222379538659</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>-35.00587386539009,173.78304972565957</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>-35.00561326295926,173.78387863888304</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>-35.00525183123201,173.78462366412222</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>-35.004852025381524,173.7853423874942</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>-35.00440333247034,173.7859814495571</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>-35.003927493049154,173.78663908596369</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>-35.003381059523704,173.78727070002728</t>
+        </is>
+      </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>-35.00289752876832,173.78796653987123</t>
+        </is>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>-35.00254976824936,173.78875665722185</t>
+        </is>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-35.0069043766925,173.77983821562083</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-35.0066821340311,173.7806023895292</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-35.006466361923735,173.7814033301142</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-35.0061830640097,173.78223861653248</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-35.00590026383268,173.78306501622188</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-35.00555629787194,173.783842443799</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>-35.00519205892085,173.78457659461083</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>-35.004840434899876,173.7853314600936</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>-35.00438255793894,173.78595449798541</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>-35.00392166622394,173.78663003223213</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>-35.003321555192706,173.78720260623746</t>
+        </is>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>-35.002853931199546,173.78792760802102</t>
+        </is>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>-35.00251132857506,173.78872233436454</t>
+        </is>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>-35.006846346475534,173.7798239169631</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>-35.00670592187861,173.78061267086875</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-35.00644478677811,173.7813906881967</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>-35.006172113558904,173.78223241017648</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>-35.005883770161404,173.78305546272105</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>-35.0055755644318,173.78385468558452</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>-35.005252774911476,173.78462440725178</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>-35.004816593977026,173.78530898310137</t>
+        </is>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>-35.00439685969416,173.7859730521817</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>-35.00388411898492,173.78657169132086</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>-35.003339814445575,173.78722350120077</t>
+        </is>
+      </c>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>-35.00284165121525,173.78791664222405</t>
+        </is>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>-35.00247630413688,173.7886910610141</t>
+        </is>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0045/nzd0045.xlsx
+++ b/data/nzd0045/nzd0045.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O519"/>
+  <dimension ref="A1:O523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24713,6 +24713,192 @@
         </is>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>407.0633333333333</v>
+      </c>
+      <c r="C520" t="n">
+        <v>410.8</v>
+      </c>
+      <c r="D520" t="n">
+        <v>398.9426315789473</v>
+      </c>
+      <c r="E520" t="n">
+        <v>394.66</v>
+      </c>
+      <c r="F520" t="n">
+        <v>392.8626315789473</v>
+      </c>
+      <c r="G520" t="n">
+        <v>395.8611111111111</v>
+      </c>
+      <c r="H520" t="n">
+        <v>393.8264705882353</v>
+      </c>
+      <c r="I520" t="n">
+        <v>397.5826315789473</v>
+      </c>
+      <c r="J520" t="n">
+        <v>396.1</v>
+      </c>
+      <c r="K520" t="n">
+        <v>377.3211111111111</v>
+      </c>
+      <c r="L520" t="n">
+        <v>373.5685714285714</v>
+      </c>
+      <c r="M520" t="n">
+        <v>379.17</v>
+      </c>
+      <c r="N520" t="n">
+        <v>365.44</v>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>398.11</v>
+      </c>
+      <c r="C521" t="n">
+        <v>410.48</v>
+      </c>
+      <c r="D521" t="n">
+        <v>398.0494736842105</v>
+      </c>
+      <c r="E521" t="n">
+        <v>395.79</v>
+      </c>
+      <c r="F521" t="n">
+        <v>388.9594736842105</v>
+      </c>
+      <c r="G521" t="n">
+        <v>390.8266666666667</v>
+      </c>
+      <c r="H521" t="n">
+        <v>391.6294117647059</v>
+      </c>
+      <c r="I521" t="n">
+        <v>392.7494736842105</v>
+      </c>
+      <c r="J521" t="n">
+        <v>394.77</v>
+      </c>
+      <c r="K521" t="n">
+        <v>379.9766666666667</v>
+      </c>
+      <c r="L521" t="n">
+        <v>373.84</v>
+      </c>
+      <c r="M521" t="n">
+        <v>378.31</v>
+      </c>
+      <c r="N521" t="n">
+        <v>375.88</v>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>407.04</v>
+      </c>
+      <c r="C522" t="n">
+        <v>405.34</v>
+      </c>
+      <c r="D522" t="n">
+        <v>393.1063157894737</v>
+      </c>
+      <c r="E522" t="n">
+        <v>393.53</v>
+      </c>
+      <c r="F522" t="n">
+        <v>385.7663157894737</v>
+      </c>
+      <c r="G522" t="n">
+        <v>390.2066666666667</v>
+      </c>
+      <c r="H522" t="n">
+        <v>389.1235294117647</v>
+      </c>
+      <c r="I522" t="n">
+        <v>393.1463157894737</v>
+      </c>
+      <c r="J522" t="n">
+        <v>395.7</v>
+      </c>
+      <c r="K522" t="n">
+        <v>382.5666666666667</v>
+      </c>
+      <c r="L522" t="n">
+        <v>381.1685714285715</v>
+      </c>
+      <c r="M522" t="n">
+        <v>378.45</v>
+      </c>
+      <c r="N522" t="inlineStr"/>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr"/>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="n">
+        <v>392.31</v>
+      </c>
+      <c r="F523" t="n">
+        <v>391.068947368421</v>
+      </c>
+      <c r="G523" t="inlineStr"/>
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="n">
+        <v>376.2514285714286</v>
+      </c>
+      <c r="M523" t="n">
+        <v>374.03</v>
+      </c>
+      <c r="N523" t="n">
+        <v>359.93</v>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24724,7 +24910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B523"/>
+  <dimension ref="A1:B527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29962,6 +30148,46 @@
       </c>
       <c r="B523" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -30135,28 +30361,28 @@
         <v>0.1428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1660099227879577</v>
+        <v>0.1676793017364996</v>
       </c>
       <c r="J2" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K2" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01788896575318388</v>
+        <v>0.0184545163282549</v>
       </c>
       <c r="M2" t="n">
-        <v>7.438235589884122</v>
+        <v>7.417298858911234</v>
       </c>
       <c r="N2" t="n">
-        <v>90.01720906177847</v>
+        <v>89.52560580540404</v>
       </c>
       <c r="O2" t="n">
-        <v>9.487739934345717</v>
+        <v>9.461797176298171</v>
       </c>
       <c r="P2" t="n">
-        <v>398.4082377355576</v>
+        <v>398.3919868806702</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30213,28 +30439,28 @@
         <v>0.1145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1618560618590929</v>
+        <v>0.1597868148004175</v>
       </c>
       <c r="J3" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K3" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01975721624435423</v>
+        <v>0.01950081642093315</v>
       </c>
       <c r="M3" t="n">
-        <v>6.76379017673787</v>
+        <v>6.730633482175769</v>
       </c>
       <c r="N3" t="n">
-        <v>77.05075425585336</v>
+        <v>76.57832976634229</v>
       </c>
       <c r="O3" t="n">
-        <v>8.777855903115142</v>
+        <v>8.750904511325803</v>
       </c>
       <c r="P3" t="n">
-        <v>406.3471287673871</v>
+        <v>406.3673057303375</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30291,28 +30517,28 @@
         <v>0.105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1560193682019567</v>
+        <v>0.149408312521805</v>
       </c>
       <c r="J4" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K4" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02299994373028025</v>
+        <v>0.0213293093085507</v>
       </c>
       <c r="M4" t="n">
-        <v>5.914234910802072</v>
+        <v>5.915009889070353</v>
       </c>
       <c r="N4" t="n">
-        <v>61.36645150581871</v>
+        <v>61.17586597231439</v>
       </c>
       <c r="O4" t="n">
-        <v>7.833674202174782</v>
+        <v>7.821500237953995</v>
       </c>
       <c r="P4" t="n">
-        <v>397.9541386714025</v>
+        <v>398.0184398581592</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30369,28 +30595,28 @@
         <v>0.1128</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1789502346952882</v>
+        <v>0.1662649342452752</v>
       </c>
       <c r="J5" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K5" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0313819130180083</v>
+        <v>0.02741481220725894</v>
       </c>
       <c r="M5" t="n">
-        <v>5.511348530182126</v>
+        <v>5.535392584195208</v>
       </c>
       <c r="N5" t="n">
-        <v>58.28023069934346</v>
+        <v>58.30425076127204</v>
       </c>
       <c r="O5" t="n">
-        <v>7.634148983308058</v>
+        <v>7.635722019643725</v>
       </c>
       <c r="P5" t="n">
-        <v>397.2220482488947</v>
+        <v>397.3463789065523</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30447,28 +30673,28 @@
         <v>0.1086</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1421011384895784</v>
+        <v>0.1246374071641262</v>
       </c>
       <c r="J6" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K6" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01827110787894337</v>
+        <v>0.01411735578935958</v>
       </c>
       <c r="M6" t="n">
-        <v>5.762541866198026</v>
+        <v>5.8132671413214</v>
       </c>
       <c r="N6" t="n">
-        <v>63.40523094001965</v>
+        <v>63.91848461976552</v>
       </c>
       <c r="O6" t="n">
-        <v>7.962740165296093</v>
+        <v>7.994903665446228</v>
       </c>
       <c r="P6" t="n">
-        <v>396.7333175216195</v>
+        <v>396.9056735733402</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30525,28 +30751,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.200253036379537</v>
+        <v>0.186326516940837</v>
       </c>
       <c r="J7" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K7" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03125820788129774</v>
+        <v>0.02718926721078407</v>
       </c>
       <c r="M7" t="n">
-        <v>6.314237370494225</v>
+        <v>6.350115077509984</v>
       </c>
       <c r="N7" t="n">
-        <v>73.25019730972508</v>
+        <v>73.66714898831816</v>
       </c>
       <c r="O7" t="n">
-        <v>8.5586329112613</v>
+        <v>8.582956890740986</v>
       </c>
       <c r="P7" t="n">
-        <v>398.5127236993781</v>
+        <v>398.6490278368178</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30603,28 +30829,28 @@
         <v>0.0948</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1590147833982709</v>
+        <v>0.1449830831422521</v>
       </c>
       <c r="J8" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K8" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01817782883890562</v>
+        <v>0.01518759344911347</v>
       </c>
       <c r="M8" t="n">
-        <v>6.490315306294627</v>
+        <v>6.517797727458308</v>
       </c>
       <c r="N8" t="n">
-        <v>80.88956113434269</v>
+        <v>81.24113078044357</v>
       </c>
       <c r="O8" t="n">
-        <v>8.993862414688291</v>
+        <v>9.013386199450435</v>
       </c>
       <c r="P8" t="n">
-        <v>398.8438906678865</v>
+        <v>398.9803074407407</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30681,28 +30907,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1478321004658089</v>
+        <v>0.1390817131019763</v>
       </c>
       <c r="J9" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K9" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L9" t="n">
-        <v>0.018750882115949</v>
+        <v>0.01675755199367868</v>
       </c>
       <c r="M9" t="n">
-        <v>6.438115036036292</v>
+        <v>6.437992614544493</v>
       </c>
       <c r="N9" t="n">
-        <v>66.30423341248792</v>
+        <v>66.21714041807631</v>
       </c>
       <c r="O9" t="n">
-        <v>8.142741148562191</v>
+        <v>8.137391499619293</v>
       </c>
       <c r="P9" t="n">
-        <v>397.7139176488574</v>
+        <v>397.8005871691608</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30759,28 +30985,28 @@
         <v>0.1109</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1046234952373238</v>
+        <v>0.09530689038983046</v>
       </c>
       <c r="J10" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K10" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008175812057616638</v>
+        <v>0.006845836998959909</v>
       </c>
       <c r="M10" t="n">
-        <v>6.896336774963871</v>
+        <v>6.899886929388204</v>
       </c>
       <c r="N10" t="n">
-        <v>77.23412886189691</v>
+        <v>77.10613723698853</v>
       </c>
       <c r="O10" t="n">
-        <v>8.788294991743102</v>
+        <v>8.781010035126286</v>
       </c>
       <c r="P10" t="n">
-        <v>400.5021288188806</v>
+        <v>400.5945537378659</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30837,28 +31063,28 @@
         <v>0.1017</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01933616752956583</v>
+        <v>0.005095615680070499</v>
       </c>
       <c r="J11" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K11" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001937503461253431</v>
+        <v>1.35181024719655e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>8.298642439305377</v>
+        <v>8.322713518393005</v>
       </c>
       <c r="N11" t="n">
-        <v>112.1956370694883</v>
+        <v>112.3717197261919</v>
       </c>
       <c r="O11" t="n">
-        <v>10.59224419419645</v>
+        <v>10.60055280285853</v>
       </c>
       <c r="P11" t="n">
-        <v>391.1138983235942</v>
+        <v>391.2551996843321</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30915,28 +31141,28 @@
         <v>0.0813</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.02269387001411975</v>
+        <v>-0.04377336154470468</v>
       </c>
       <c r="J12" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K12" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001537642845028664</v>
+        <v>0.0005772185786612205</v>
       </c>
       <c r="M12" t="n">
-        <v>11.26845004361808</v>
+        <v>11.27262694683473</v>
       </c>
       <c r="N12" t="n">
-        <v>195.4122466362642</v>
+        <v>195.2067878405723</v>
       </c>
       <c r="O12" t="n">
-        <v>13.97899304800829</v>
+        <v>13.97164227428445</v>
       </c>
       <c r="P12" t="n">
-        <v>389.7549693559352</v>
+        <v>389.9627855758582</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30993,28 +31219,28 @@
         <v>0.0563</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1025143229250263</v>
+        <v>-0.1304413127600975</v>
       </c>
       <c r="J13" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K13" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002213073121234865</v>
+        <v>0.003607007106594118</v>
       </c>
       <c r="M13" t="n">
-        <v>13.28389239975376</v>
+        <v>13.30225402151733</v>
       </c>
       <c r="N13" t="n">
-        <v>273.00615291488</v>
+        <v>273.1148240429739</v>
       </c>
       <c r="O13" t="n">
-        <v>16.52289783648377</v>
+        <v>16.52618601017712</v>
       </c>
       <c r="P13" t="n">
-        <v>397.1378534338056</v>
+        <v>397.4155158188865</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31071,28 +31297,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.09502432737998064</v>
+        <v>-0.1198963583274131</v>
       </c>
       <c r="J14" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K14" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002572937440481038</v>
+        <v>0.004085908802811899</v>
       </c>
       <c r="M14" t="n">
-        <v>11.20936705822413</v>
+        <v>11.2529512365895</v>
       </c>
       <c r="N14" t="n">
-        <v>200.5208938559871</v>
+        <v>202.0424836678184</v>
       </c>
       <c r="O14" t="n">
-        <v>14.16054002699004</v>
+        <v>14.21416489519586</v>
       </c>
       <c r="P14" t="n">
-        <v>389.1403251467937</v>
+        <v>389.3883697549576</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31130,7 +31356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O519"/>
+  <dimension ref="A1:O523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66665,6 +66891,278 @@
         </is>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>-35.006869882589214,173.7798297162639</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>-35.006714077711806,173.78061619590085</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>-35.00649271634471,173.78141877244968</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>-35.006231360396626,173.7822659893615</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>-35.005927489098625,173.78308078571035</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>-35.00560242219154,173.78387175075605</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>-35.00526453974512,173.78463367183554</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>-35.00482750200597,173.78531926708376</t>
+        </is>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>-35.00440111323285,173.78597857045685</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>-35.003937455437296,173.78665456554586</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>-35.00338503585581,173.78727525034867</t>
+        </is>
+      </c>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>-35.002905376329295,173.78797354760866</t>
+        </is>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>-35.002577744187285,173.78878163701543</t>
+        </is>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-35.006949003989625,173.77984921181093</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>-35.006716796322834,173.7806173709117</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>-35.006499970756714,173.78142302316405</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-35.0062221260626,173.782260755637</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>-35.00595925976008,173.78309918800954</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>-35.005642651115245,173.7838973118655</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>-35.00528116541682,173.78464676424278</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>-35.0048619359737,173.78535173111356</t>
+        </is>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>-35.00440931208207,173.7859892071337</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>-35.00392270320137,173.78663164348936</t>
+        </is>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>-35.0033832540089,173.7872732112895</t>
+        </is>
+      </c>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>-35.002911625312706,173.787979127845</t>
+        </is>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>-35.002501882150675,173.7887138996408</t>
+        </is>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-35.00687008878795,173.77982976707128</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-35.006760464010746,173.78063624453446</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-35.00654012009815,173.78144654864013</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>-35.00624059473039,173.78227122308712</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>-35.0059852512091,173.78311424286778</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>-35.00564760537205,173.78390045975934</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>-35.00530012802844,173.78466169695474</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>-35.004859108661435,173.78534906554808</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>-35.00440357905226,173.78598176945718</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>-35.003908315137664,173.78660928729903</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>-35.00333514412856,173.78721815672543</t>
+        </is>
+      </c>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>-35.00291060803636,173.7879782194344</t>
+        </is>
+      </c>
+      <c r="N522" t="inlineStr"/>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr"/>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-35.006250564541766,173.78227687365955</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>-35.0059420892088,173.7830892424286</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr"/>
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>-35.00336742370419,173.78725509586246</t>
+        </is>
+      </c>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>-35.00294272490055,173.7880068992664</t>
+        </is>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>-35.00261778246809,173.78881738734717</t>
+        </is>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0045/nzd0045.xlsx
+++ b/data/nzd0045/nzd0045.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O523"/>
+  <dimension ref="A1:O525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24899,6 +24899,108 @@
         </is>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>401.24</v>
+      </c>
+      <c r="C524" t="n">
+        <v>408.48</v>
+      </c>
+      <c r="D524" t="n">
+        <v>400.62</v>
+      </c>
+      <c r="E524" t="n">
+        <v>393.03</v>
+      </c>
+      <c r="F524" t="n">
+        <v>389.81</v>
+      </c>
+      <c r="G524" t="n">
+        <v>391.0266666666667</v>
+      </c>
+      <c r="H524" t="n">
+        <v>393.4341176470588</v>
+      </c>
+      <c r="I524" t="n">
+        <v>392.53</v>
+      </c>
+      <c r="J524" t="n">
+        <v>397.74</v>
+      </c>
+      <c r="K524" t="n">
+        <v>380.9166666666667</v>
+      </c>
+      <c r="L524" t="n">
+        <v>372.8671428571428</v>
+      </c>
+      <c r="M524" t="n">
+        <v>367.9500000000001</v>
+      </c>
+      <c r="N524" t="n">
+        <v>362.0100000000001</v>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>393.53</v>
+      </c>
+      <c r="C525" t="n">
+        <v>407.03</v>
+      </c>
+      <c r="D525" t="n">
+        <v>395.1026315789474</v>
+      </c>
+      <c r="E525" t="n">
+        <v>390.98</v>
+      </c>
+      <c r="F525" t="n">
+        <v>390.6026315789474</v>
+      </c>
+      <c r="G525" t="n">
+        <v>390.6866666666667</v>
+      </c>
+      <c r="H525" t="n">
+        <v>393.8152941176471</v>
+      </c>
+      <c r="I525" t="n">
+        <v>393.8026315789473</v>
+      </c>
+      <c r="J525" t="n">
+        <v>396.79</v>
+      </c>
+      <c r="K525" t="n">
+        <v>383.4366666666667</v>
+      </c>
+      <c r="L525" t="n">
+        <v>372.3614285714286</v>
+      </c>
+      <c r="M525" t="n">
+        <v>368.09</v>
+      </c>
+      <c r="N525" t="n">
+        <v>360.75</v>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24910,7 +25012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B527"/>
+  <dimension ref="A1:B529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30188,6 +30290,26 @@
       </c>
       <c r="B527" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -30361,28 +30483,28 @@
         <v>0.1428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1676793017364996</v>
+        <v>0.163270106999716</v>
       </c>
       <c r="J2" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K2" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0184545163282549</v>
+        <v>0.01762619186539272</v>
       </c>
       <c r="M2" t="n">
-        <v>7.417298858911234</v>
+        <v>7.407277250140809</v>
       </c>
       <c r="N2" t="n">
-        <v>89.52560580540404</v>
+        <v>89.31217609851927</v>
       </c>
       <c r="O2" t="n">
-        <v>9.461797176298171</v>
+        <v>9.450511949017327</v>
       </c>
       <c r="P2" t="n">
-        <v>398.3919868806702</v>
+        <v>398.4351537745812</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30439,28 +30561,28 @@
         <v>0.1145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1597868148004175</v>
+        <v>0.1575117820918487</v>
       </c>
       <c r="J3" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K3" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01950081642093315</v>
+        <v>0.01911489457159576</v>
       </c>
       <c r="M3" t="n">
-        <v>6.730633482175769</v>
+        <v>6.713437463496911</v>
       </c>
       <c r="N3" t="n">
-        <v>76.57832976634229</v>
+        <v>76.2629562828177</v>
       </c>
       <c r="O3" t="n">
-        <v>8.750904511325803</v>
+        <v>8.732866441370652</v>
       </c>
       <c r="P3" t="n">
-        <v>406.3673057303375</v>
+        <v>406.389599951938</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30517,28 +30639,28 @@
         <v>0.105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.149408312521805</v>
+        <v>0.1460525447623339</v>
       </c>
       <c r="J4" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K4" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0213293093085507</v>
+        <v>0.02054332289938077</v>
       </c>
       <c r="M4" t="n">
-        <v>5.915009889070353</v>
+        <v>5.908735479481552</v>
       </c>
       <c r="N4" t="n">
-        <v>61.17586597231439</v>
+        <v>61.00213450749679</v>
       </c>
       <c r="O4" t="n">
-        <v>7.821500237953995</v>
+        <v>7.810386322551324</v>
       </c>
       <c r="P4" t="n">
-        <v>398.0184398581592</v>
+        <v>398.0512777527859</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30595,28 +30717,28 @@
         <v>0.1128</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1662649342452752</v>
+        <v>0.1584345428324578</v>
       </c>
       <c r="J5" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K5" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02741481220725894</v>
+        <v>0.02498819672167985</v>
       </c>
       <c r="M5" t="n">
-        <v>5.535392584195208</v>
+        <v>5.557385257852706</v>
       </c>
       <c r="N5" t="n">
-        <v>58.30425076127204</v>
+        <v>58.46470095449208</v>
       </c>
       <c r="O5" t="n">
-        <v>7.635722019643725</v>
+        <v>7.6462213513926</v>
       </c>
       <c r="P5" t="n">
-        <v>397.3463789065523</v>
+        <v>397.4234887113738</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30673,28 +30795,28 @@
         <v>0.1086</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1246374071641262</v>
+        <v>0.1166031416828557</v>
       </c>
       <c r="J6" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K6" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01411735578935958</v>
+        <v>0.01239779171517452</v>
       </c>
       <c r="M6" t="n">
-        <v>5.8132671413214</v>
+        <v>5.835211755979754</v>
       </c>
       <c r="N6" t="n">
-        <v>63.91848461976552</v>
+        <v>64.07228994859859</v>
       </c>
       <c r="O6" t="n">
-        <v>7.994903665446228</v>
+        <v>8.004516846668423</v>
       </c>
       <c r="P6" t="n">
-        <v>396.9056735733402</v>
+        <v>396.9853416386654</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30751,28 +30873,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.186326516940837</v>
+        <v>0.1760747200558072</v>
       </c>
       <c r="J7" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K7" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02718926721078407</v>
+        <v>0.02432532023923062</v>
       </c>
       <c r="M7" t="n">
-        <v>6.350115077509984</v>
+        <v>6.379307169420492</v>
       </c>
       <c r="N7" t="n">
-        <v>73.66714898831816</v>
+        <v>74.05017155241508</v>
       </c>
       <c r="O7" t="n">
-        <v>8.582956890740986</v>
+        <v>8.605240935175207</v>
       </c>
       <c r="P7" t="n">
-        <v>398.6490278368178</v>
+        <v>398.7499153489796</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30829,28 +30951,28 @@
         <v>0.0948</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1449830831422521</v>
+        <v>0.1375466137999563</v>
       </c>
       <c r="J8" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K8" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01518759344911347</v>
+        <v>0.01374656593798729</v>
       </c>
       <c r="M8" t="n">
-        <v>6.517797727458308</v>
+        <v>6.52684929333891</v>
       </c>
       <c r="N8" t="n">
-        <v>81.24113078044357</v>
+        <v>81.24629440100405</v>
       </c>
       <c r="O8" t="n">
-        <v>9.013386199450435</v>
+        <v>9.013672636667257</v>
       </c>
       <c r="P8" t="n">
-        <v>398.9803074407407</v>
+        <v>399.0529963756935</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30907,28 +31029,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1390817131019763</v>
+        <v>0.1322829068256367</v>
       </c>
       <c r="J9" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K9" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01675755199367868</v>
+        <v>0.01524486665911973</v>
       </c>
       <c r="M9" t="n">
-        <v>6.437992614544493</v>
+        <v>6.442417672865886</v>
       </c>
       <c r="N9" t="n">
-        <v>66.21714041807631</v>
+        <v>66.22400046058613</v>
       </c>
       <c r="O9" t="n">
-        <v>8.137391499619293</v>
+        <v>8.137813002311255</v>
       </c>
       <c r="P9" t="n">
-        <v>397.8005871691608</v>
+        <v>397.8682813620104</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30985,28 +31107,28 @@
         <v>0.1109</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09530689038983046</v>
+        <v>0.09062842977472721</v>
       </c>
       <c r="J10" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K10" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006845836998959909</v>
+        <v>0.006234727594548573</v>
       </c>
       <c r="M10" t="n">
-        <v>6.899886929388204</v>
+        <v>6.894046305471274</v>
       </c>
       <c r="N10" t="n">
-        <v>77.10613723698853</v>
+        <v>76.91012591873348</v>
       </c>
       <c r="O10" t="n">
-        <v>8.781010035126286</v>
+        <v>8.76984184114705</v>
       </c>
       <c r="P10" t="n">
-        <v>400.5945537378659</v>
+        <v>400.6412275124821</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31063,28 +31185,28 @@
         <v>0.1017</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005095615680070499</v>
+        <v>-0.002378074764931421</v>
       </c>
       <c r="J11" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K11" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35181024719655e-05</v>
+        <v>2.959404448610314e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>8.322713518393005</v>
+        <v>8.326918794729487</v>
       </c>
       <c r="N11" t="n">
-        <v>112.3717197261919</v>
+        <v>112.2487982207023</v>
       </c>
       <c r="O11" t="n">
-        <v>10.60055280285853</v>
+        <v>10.59475333458511</v>
       </c>
       <c r="P11" t="n">
-        <v>391.2551996843321</v>
+        <v>391.3297627606795</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31141,28 +31263,28 @@
         <v>0.0813</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.04377336154470468</v>
+        <v>-0.05689656967388024</v>
       </c>
       <c r="J12" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K12" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0005772185786612205</v>
+        <v>0.0009773606705402171</v>
       </c>
       <c r="M12" t="n">
-        <v>11.27262694683473</v>
+        <v>11.28728719453789</v>
       </c>
       <c r="N12" t="n">
-        <v>195.2067878405723</v>
+        <v>195.4968378922281</v>
       </c>
       <c r="O12" t="n">
-        <v>13.97164227428445</v>
+        <v>13.98201837690925</v>
       </c>
       <c r="P12" t="n">
-        <v>389.9627855758582</v>
+        <v>390.0927959053979</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31219,28 +31341,28 @@
         <v>0.0563</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1304413127600975</v>
+        <v>-0.151703989937762</v>
       </c>
       <c r="J13" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K13" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003607007106594118</v>
+        <v>0.004861277307130374</v>
       </c>
       <c r="M13" t="n">
-        <v>13.30225402151733</v>
+        <v>13.34880603909226</v>
       </c>
       <c r="N13" t="n">
-        <v>273.1148240429739</v>
+        <v>274.8965342419927</v>
       </c>
       <c r="O13" t="n">
-        <v>16.52618601017712</v>
+        <v>16.5800040483105</v>
       </c>
       <c r="P13" t="n">
-        <v>397.4155158188865</v>
+        <v>397.6278723831851</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31297,28 +31419,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1198963583274131</v>
+        <v>-0.1408373380200556</v>
       </c>
       <c r="J14" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K14" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004085908802811899</v>
+        <v>0.005601590922266197</v>
       </c>
       <c r="M14" t="n">
-        <v>11.2529512365895</v>
+        <v>11.30594290102431</v>
       </c>
       <c r="N14" t="n">
-        <v>202.0424836678184</v>
+        <v>203.9279740520254</v>
       </c>
       <c r="O14" t="n">
-        <v>14.21416489519586</v>
+        <v>14.2803352219766</v>
       </c>
       <c r="P14" t="n">
-        <v>389.3883697549576</v>
+        <v>389.5980989483211</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31356,7 +31478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O523"/>
+  <dimension ref="A1:O525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67163,6 +67285,160 @@
         </is>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-35.00692134390266,173.77984239634907</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-35.006733787641515,173.78062471473135</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-35.00647909241318,173.78141078952495</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-35.006244680718694,173.78227353889534</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-35.0059523367036,173.78309517801432</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>-35.005641052967874,173.78389629641595</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>-35.00526750877416,173.7846360098902</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>-35.00486349961984,173.78535320530568</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>-35.004391003372334,173.78596545455744</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>-35.00391748127912,173.78662352965875</t>
+        </is>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>-35.0033896405232,173.78728051970725</t>
+        </is>
+      </c>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>-35.00298690374262,173.7880463502939</t>
+        </is>
+      </c>
+      <c r="N524" t="inlineStr">
+        <is>
+          <t>-35.002602668200076,173.78880389175504</t>
+        </is>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>-35.00698947785386,173.779859184604</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>-35.00674610634721,173.78063003900255</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>-35.00652390561282,173.78143704777165</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>-35.00626143327023,173.7822830337114</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>-35.00594588489462,173.7830914409773</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>-35.0056437698184,173.7838980226802</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>-35.005264624320176,173.78463373843678</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>-35.00485443272181,173.78534465711326</t>
+        </is>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>-35.00439685969416,173.7859730521817</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>-35.003903482080574,173.78660177769243</t>
+        </is>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>-35.00339296038509,173.7872843187971</t>
+        </is>
+      </c>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>-35.0029858864668,173.78804544188162</t>
+        </is>
+      </c>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>-35.00261182395877,173.78881206696892</t>
+        </is>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0045/nzd0045.xlsx
+++ b/data/nzd0045/nzd0045.xlsx
@@ -30474,13 +30474,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.12</v>
+        <v>0.095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1039</v>
+        <v>0.0704</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1428</v>
+        <v>0.142</v>
       </c>
       <c r="I2" t="n">
         <v>0.1633039015608009</v>
@@ -30555,10 +30555,10 @@
         <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0859</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1145</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.1575117820918488</v>
@@ -30630,13 +30630,13 @@
         <v>0.8344316657940778</v>
       </c>
       <c r="F4" t="n">
-        <v>0.095</v>
+        <v>0.135</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0866</v>
+        <v>0.1109</v>
       </c>
       <c r="H4" t="n">
-        <v>0.105</v>
+        <v>0.1681</v>
       </c>
       <c r="I4" t="n">
         <v>0.1460412771855008</v>
@@ -30708,13 +30708,13 @@
         <v>0.7508334239712996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0924</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1128</v>
+        <v>0.1145</v>
       </c>
       <c r="I5" t="n">
         <v>0.1584345428324578</v>
@@ -30786,13 +30786,13 @@
         <v>0.6672315605811227</v>
       </c>
       <c r="F6" t="n">
-        <v>0.095</v>
+        <v>0.105</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0856</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1086</v>
+        <v>0.1187</v>
       </c>
       <c r="I6" t="n">
         <v>0.1165975447593042</v>
@@ -30864,13 +30864,13 @@
         <v>0.5836388304285975</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0822</v>
+        <v>0.1033</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1007</v>
+        <v>0.1381</v>
       </c>
       <c r="I7" t="n">
         <v>0.1760594629190215</v>
@@ -30942,13 +30942,13 @@
         <v>0.5000325414257607</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.1034</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0948</v>
+        <v>0.1425</v>
       </c>
       <c r="I8" t="n">
         <v>0.1375512740671727</v>
@@ -31020,13 +31020,13 @@
         <v>0.4164544606110747</v>
       </c>
       <c r="F9" t="n">
-        <v>0.095</v>
+        <v>0.115</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0848</v>
+        <v>0.1015</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1039</v>
+        <v>0.1381</v>
       </c>
       <c r="I9" t="n">
         <v>0.1322737494084814</v>
@@ -31098,13 +31098,13 @@
         <v>0.3329771265817193</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0.155</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0888</v>
+        <v>0.0917</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1109</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>0.09062842977472728</v>
@@ -31176,13 +31176,13 @@
         <v>0.2496747165788296</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0819</v>
+        <v>0.0805</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1017</v>
+        <v>0.1502</v>
       </c>
       <c r="I11" t="n">
         <v>-0.002388270919967506</v>
@@ -31254,13 +31254,13 @@
         <v>0.166114781004922</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0634</v>
+        <v>0.0621</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0813</v>
+        <v>0.0914</v>
       </c>
       <c r="I12" t="n">
         <v>-0.05687174496352964</v>
@@ -31332,13 +31332,13 @@
         <v>0.08270026131536445</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0441</v>
+        <v>0.0545</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0563</v>
+        <v>0.0948</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1517039899377622</v>
@@ -31410,13 +31410,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0457</v>
+        <v>0.0622</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0551</v>
+        <v>0.1207</v>
       </c>
       <c r="I14" t="n">
         <v>-0.1408373380200557</v>
